--- a/reproducibility-package/data-extraction.xlsx
+++ b/reproducibility-package/data-extraction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8VO SEMESTRE\Proyecto guiado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8VO SEMESTRE\Proyecto guiado\Reporte de RSL\ethical-persuasive-system-design-slr\reproducibility-package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77816B6F-3CF9-4277-9858-AA7FC43292C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A3E8C-28AE-4C78-8601-709658EF2459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36C0FA61-A238-4C67-84DE-CF608EBF8095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36C0FA61-A238-4C67-84DE-CF608EBF8095}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos extraídos" sheetId="1" r:id="rId1"/>
@@ -15989,8 +15989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8ED8D9-ABAB-4C39-A766-D0ECC579BC6D}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17152,7 +17152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DC5BEA-FA31-47A1-9235-69D2C15F0105}">
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="D56" zoomScale="97" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="97" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>

--- a/reproducibility-package/data-extraction.xlsx
+++ b/reproducibility-package/data-extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8VO SEMESTRE\Proyecto guiado\Reporte de RSL\ethical-persuasive-system-design-slr\reproducibility-package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6083767C-D700-431D-8AEF-DEB800E2DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6607A4-6429-43D5-A0E4-EFB3A5C6EE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36C0FA61-A238-4C67-84DE-CF608EBF8095}"/>
+    <workbookView xWindow="4620" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{36C0FA61-A238-4C67-84DE-CF608EBF8095}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos de estudios" sheetId="1" r:id="rId1"/>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8ED8D9-ABAB-4C39-A766-D0ECC579BC6D}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2581,7 +2581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDEF61A-CAB0-4CE3-ADFE-283B824D852F}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="46" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/reproducibility-package/data-extraction.xlsx
+++ b/reproducibility-package/data-extraction.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8VO SEMESTRE\Proyecto guiado\Reporte de RSL\ethical-persuasive-system-design-slr\reproducibility-package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6607A4-6429-43D5-A0E4-EFB3A5C6EE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8F562F-8B23-4BAC-922D-058F13B84E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{36C0FA61-A238-4C67-84DE-CF608EBF8095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36C0FA61-A238-4C67-84DE-CF608EBF8095}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos de estudios" sheetId="1" r:id="rId1"/>
-    <sheet name="Extractos " sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Extracts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="628">
   <si>
     <t>ID</t>
   </si>
@@ -45,48 +45,6 @@
     <t>DOI</t>
   </si>
   <si>
-    <t>Título</t>
-  </si>
-  <si>
-    <t>Autores</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Motor de búsqueda</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>Tipo de publicación</t>
-  </si>
-  <si>
-    <t>Preocupación ética</t>
-  </si>
-  <si>
-    <t>Tipo de daño</t>
-  </si>
-  <si>
-    <t>Técnica persuasiva</t>
-  </si>
-  <si>
-    <t>Dominio de aplicación</t>
-  </si>
-  <si>
-    <t>Recomendación propuesta</t>
-  </si>
-  <si>
-    <t>Principio ético</t>
-  </si>
-  <si>
-    <t>Palabras clave</t>
-  </si>
-  <si>
-    <t>Resumen</t>
-  </si>
-  <si>
     <t>EP-1</t>
   </si>
   <si>
@@ -105,9 +63,6 @@
     <t>dark patterns; user experience; ethics; manipulation</t>
   </si>
   <si>
-    <t>Congreso</t>
-  </si>
-  <si>
     <t>Proc. ACM Hum.-Comput. Interact.</t>
   </si>
   <si>
@@ -306,9 +261,6 @@
     <t>Aung, Kalya Win; Soubutts, Ewan; Singh, Aneesha</t>
   </si>
   <si>
-    <t>Revista</t>
-  </si>
-  <si>
     <t>10.1145/3677113</t>
   </si>
   <si>
@@ -603,18 +555,12 @@
     <t>Clusters of Dark Patterns Across Popular Websites in New Zealand</t>
   </si>
   <si>
-    <t>Investigating Visual Countermeasures Against Dark Patterns in User Interfaces</t>
-  </si>
-  <si>
     <t>Sousa, Carla; Oliveira, Ana</t>
   </si>
   <si>
     <t>Lacey, Cherie; Beattie, Alex; Sparks, Tristam</t>
   </si>
   <si>
-    <t>Schäfer, René; Preuschoff, Paul Miles; Borchers, Jan</t>
-  </si>
-  <si>
     <t>EP-26</t>
   </si>
   <si>
@@ -627,33 +573,21 @@
     <t>International Journal of Communication</t>
   </si>
   <si>
-    <t>ACM International Conference Proceeding Series</t>
-  </si>
-  <si>
     <t>10.34190/ecgbl.17.1.1656</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>10.1145/3603555.3603563</t>
-  </si>
-  <si>
     <t>Play has always been recognized as an essential aspect of human development, particularly during early childhood, as it contributes to learning, the formation of meanings, and experiencing the world. In today's digitalized society, early childhood education has increasingly integrated digital media into its practices, both in schools and at the family level. Mobile digital games (MDG) have received significant attention due to their impact on children's interactions, play, and learning. However, as young children engage more with MDGs, concerns about problem gaming have arisen, referring to conflicts and issues that emerge from game playing within everyday sociocultural contexts. Scholars such as Zagal et al. (2013) have identified certain game design patterns as "dark", which can be considered unethical as they manipulate players against their best interests. Given the prevalence of mobile gaming in early childhood, studying these dark patterns becomes even more crucial. This study aims to investigate the presence of dark patterns in MDG for young children (0-5 years old), through qualitative analysis. The five most popular free games for this age range on App Store (February 2023) were analysed, particularly focusing on the presence of temporal, monetary, social, and/or psychological dark patterns. The analysis uncovers the presence of temporal, monetary, and psychological dark patterns, including aesthetic manipulations, paywalls, and periodic rewards resembling gambling elements. The games also employ advertising strategies and engagement tactics that challenge young children's navigation. Parental control mechanisms offer limited safeguards, requiring continuous monitoring and parental involvement in play dynamics. The study highlights the importance of adult media and digital literacy in supporting children's online play effectively, while also emphasising the responsibility of game designers and developers to create healthier and less risky game experiences. © 2023 Dechema e.V.. All rights reserved.</t>
   </si>
   <si>
     <t>“Dark patterns” are interface design techniques that aim to trick or mislead Internet users. Most dark-patterns research has been undertaken in the United States and Europe and by user experience or human computer interaction researchers. In this study, we adopt a media and communication studies and science and technology studies approach to investigate where dark patterns “cluster” in online environments. A walkthrough of the top 100 New Zealand websites leads us to the following findings: (1) dark patterns cluster around financial transactions; (2) the most common types of dark patterns constitute a form of interface interference; and (3) dark patterns are often deployed as mechanisms to drive revenue, facilitate customer surveillance, and reduce business operations costs, and appear to be largely imported from overseas markets. © 2023 (Cherie Lacey, Alex Beattie, and Tristam Sparks). Licensed under the Creative Commons Attribution Non-commercial No Derivatives (by-nc-nd). Available at http://ijoc.org. All Rights Reserved.</t>
   </si>
   <si>
-    <t>Dark patterns are malicious interface design strategies on the web and in apps that trick users into decisions that go against their best interests, costing them money, time, or private data. While there are approaches to classifying these patterns and investigating user awareness, there has been little work looking into visual countermeasures against dark patterns. In this work, we used an online survey to investigate concepts for six visual countermeasures against three common dark patterns: Confirmshaming, Low-stock Message, and Visual Interference. Our results indicate two opposing forces for users: On the one hand, users dislike systems actively making silent changes to their screen, preferring to be informed about the presence of dark patterns. On the other hand, they do not want applications to become visually cluttered, as this may impact their productivity. We found that different applications of dark patterns require different countermeasures, and that individual preferences vary strongly. © 2023 ACM.</t>
-  </si>
-  <si>
     <t>Game design; Digital games; Dark pattern; Computer games; Digital literacies; Digital storage; Early childhood educations; Early childhoods; Human development; Mobile digital game; Mobile gaming; Young children</t>
   </si>
   <si>
-    <t>User interfaces; Dark pattern; Design strategies; Interface designs; Deceptive pattern; Individual preference; Online surveys; Private data; Visual countermeasure</t>
-  </si>
-  <si>
     <t>EP-28</t>
   </si>
   <si>
@@ -691,9 +625,6 @@
   </si>
   <si>
     <t>Dark Pattern · Deceptive Design · Website · UX · Decision</t>
-  </si>
-  <si>
-    <t>Estudio primario</t>
   </si>
   <si>
     <t>As one example, a respondent discovered that “the placement of the agree button is often where the enter to continue button is (placed),” reflecting location-based dark patterns that are commonly deployed by developers. Designers rely upon manipulative design techniques such as these to trick, manipulate, or even coerce users into accepting rules or policies that most users may not agree in other cases, since many users often have the tendency to click buttons such as “Next Step” or “Continue” without reading the content carefully.
@@ -948,9 +879,6 @@
     <t>Ideally, social media platforms could design an interface with clear account deletion options, paired with coherent explanations about what data is deleted, when the data is deleted, who keeps access to the data, and the motivations for these policy decisions. Including transparent account deletion policies would also mitigate the need to add extra friction to the account deletion processes designed to deter accidental or unwanted deletions because the outcomes are clear and disclosed.</t>
   </si>
   <si>
-    <t>Overall, participants greatly appreciated explanations for why an element was classified as a dark pattern using HL+E which is a suggested countermeasure by Mathur et al. [21].</t>
-  </si>
-  <si>
     <t>Another type that was identified was offering incentives for doing something or even nothing. Some websites encouraged users to share their information by promising “free” goods or financial benefits, including “[a] website [that] wanted me to sign up in order to see the content.”
 As one example, a respondent discovered that “the placement of the agree button is often where the enter to continue button is (placed),” reflecting location-based dark patterns that are commonly deployed by developers. Designers rely upon manipulative design techniques such as these to trick, manipulate, or even coerce users into accepting rules or policies that most users may not agree in other cases, since many users often have the tendency to click buttons such as “Next Step” or “Continue” without reading the content carefully.
 Some sneakier methods of persuasion that are commonly used were also identified by some users; for example, “闭合性的选择” represents a situation where the digital product provided users with limited options which are similar or related to each others. No matter which one the user chose, it would always benefit the creators of that digital product.
@@ -1081,6 +1009,1241 @@
 Pinduoduo, which applies gambling-like designs to exploit users’ time and social contacts.
 Some most frequently used PSD strategies, such as personalisation, reduction and rewards, might deprive users of the opportunity to make independent decisions in long-term use.
 for social networking apps, they were recognition, personalisation, social comparison, and reminders</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Search engine</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Publication type</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Primary study</t>
+  </si>
+  <si>
+    <t>Ethical concern</t>
+  </si>
+  <si>
+    <t>Damage type</t>
+  </si>
+  <si>
+    <t>Persuasive technique</t>
+  </si>
+  <si>
+    <t>Application domain</t>
+  </si>
+  <si>
+    <t>Proposed recommendation</t>
+  </si>
+  <si>
+    <t>Ethical principle</t>
+  </si>
+  <si>
+    <t>PE-1</t>
+  </si>
+  <si>
+    <t>PE-2</t>
+  </si>
+  <si>
+    <t>PE-3</t>
+  </si>
+  <si>
+    <t>PE-4</t>
+  </si>
+  <si>
+    <t>PE-5</t>
+  </si>
+  <si>
+    <t>PE-6</t>
+  </si>
+  <si>
+    <t>PE-7</t>
+  </si>
+  <si>
+    <t>PE-8</t>
+  </si>
+  <si>
+    <t>PE-9</t>
+  </si>
+  <si>
+    <t>PE-10</t>
+  </si>
+  <si>
+    <t>PE-11</t>
+  </si>
+  <si>
+    <t>PE-12</t>
+  </si>
+  <si>
+    <t>PE-13</t>
+  </si>
+  <si>
+    <t>PE-14</t>
+  </si>
+  <si>
+    <t>PE-15</t>
+  </si>
+  <si>
+    <t>PE-16</t>
+  </si>
+  <si>
+    <t>PE-17</t>
+  </si>
+  <si>
+    <t>PE-18</t>
+  </si>
+  <si>
+    <t>PE-19</t>
+  </si>
+  <si>
+    <t>PE-20</t>
+  </si>
+  <si>
+    <t>PE-21</t>
+  </si>
+  <si>
+    <t>PE-22</t>
+  </si>
+  <si>
+    <t>PE-23</t>
+  </si>
+  <si>
+    <t>PE-24</t>
+  </si>
+  <si>
+    <t>PE-25</t>
+  </si>
+  <si>
+    <t>PE-26</t>
+  </si>
+  <si>
+    <t>PE-27</t>
+  </si>
+  <si>
+    <t>PE-28</t>
+  </si>
+  <si>
+    <t>PE-29</t>
+  </si>
+  <si>
+    <t>10.1145/3613904.3642661</t>
+  </si>
+  <si>
+    <t>Fighting Malicious Designs: Towards Visual Countermeasures Against Dark Patterns</t>
+  </si>
+  <si>
+    <t>Proceedings of the CHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>Schäfer, René; Preuschoff, Paul Miles; Röpke, René; Sahabi, Sarah; Borchers, Jan</t>
+  </si>
+  <si>
+    <t>Dark patterns are malicious UI design strategies that nudge users towards decisions going against their best interests. To create technical countermeasures against them, dark patterns must be automatically detectable. While researchers have devised algorithms to detect some patterns automatically, there has only been little work to use obtained results to technically counter the effects of dark patterns when users face them on their devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark patterns, deceptive design, visual countermeasures, lab study </t>
+  </si>
+  <si>
+    <t>Our results indicate that users prefer having access to more information, even when accompanied by increased visual clutter. As a result, Highlight with Explanation and Switch received better ratings and rankings than Hide, which silently removes the manipulation from a page</t>
+  </si>
+  <si>
+    <t>Leimstädtner, David; Sörries, Peter; Müller-Birn, Claudia</t>
+  </si>
+  <si>
+    <t>Investigating Responsible Nudge Design for Informed Decision-Making Enabling Transparent and Reflective Decision-Making</t>
+  </si>
+  <si>
+    <t>Proceedings of Mensch Und Computer 2023</t>
+  </si>
+  <si>
+    <t>10.1145/3603555.3603567</t>
+  </si>
+  <si>
+    <t>EP-30</t>
+  </si>
+  <si>
+    <t>Consent interfaces are habitually designed to coerce people into sharing the maximum amount of data, rather than making decisions that align with their intentions and privacy attitudes, by leveraging cognitive biases to nudge users toward certain decision outcomes through interface design. Reflection and transparency have been proposed as two design dimensions of a choice architecture constituting a responsible nudge approach capable of counteracting these mechanisms by prompting reflected choice. In a crowdsourced experiment, we evaluate these capabilities of a proposed data-disclosure consent interface design deploying the responsible nudge approach within a realistic setting by exploiting a status quo bias during the sign-up of an online survey platform as a secondary task within a crowdsourcing context. Our results provide insights into a responsible design of consent interfaces, suggesting that prompting reflection significantly decreases the discrepancy between users’ privacy attitudes and decision outcomes. Meanwhile, making the presence of a nudge transparent had no significant effect on its influence. Furthermore, identifying individuals’ attitudes as a significant predictor of privacy behavior provides a promising direction for future research.</t>
+  </si>
+  <si>
+    <t>privacy; informed decision-making; Reflection; responsible nudge design; transparency</t>
+  </si>
+  <si>
+    <t>The study results hence suggest that the integration of the reflection prompt within a consent interface leads its users towards making decisions that are more congruent with their’ privacy attitudes. As we aimed for reflective decision-making, our results suggest that the reflection prompt intervention succeeded in hindering automatic and heuristic decision-making process propelled by the default nudge presented within the interface’s privacy options.</t>
+  </si>
+  <si>
+    <t>Sergeeva, Anastasia; Bongard-Blanchy, Kerstin; Distler, Verena; Koenig, Vincent</t>
+  </si>
+  <si>
+    <t>The Perceived Influence of E-Shopping Cues on Customers' Buying Decisions</t>
+  </si>
+  <si>
+    <t>Proceedings of the XI Latin American Conference on Human Computer Interaction</t>
+  </si>
+  <si>
+    <t>10.1145/3630970.3630980</t>
+  </si>
+  <si>
+    <t>E-shopping sites use a variety of design elements that affect the shopping process and lead customers to favorable buying decisions. Such elements also play a significant role as impulse buying behavior triggers. In this exploratory study based on online questionnaires (N = 401), we investigated customers’ perception of the influence of eleven common e-shopping cues on their buying decisions and explored the connection between the perceived influence of the cues and the respondents’ gender, education level, and neuroticism. We found (1) that participants group the e-shopping cues by their influence power; (2) participants’ gender and educational level contribute to a more critical/favorable perception of some shopping cues; (3) a connection between a higher level of neuroticism and greater perceived influence of shopping cues, which results in lower shopping risks. Drawing on our research, we offer several design recommendations for the advancement of e-shopping websites, particularly concerning the implementation of e-shopping cues.</t>
+  </si>
+  <si>
+    <t>E-shopping; Educational Level; Gender; Neuroticism; Perceived Influence; Shopping Cues</t>
+  </si>
+  <si>
+    <t>It is also important to clearly explain to customers why an offer is time-sensitive or has limited stock, and to provide honest information about future product availability.
+Based on our findings, we suggest allowing users to customize their shopping experience by giving them control over the cues they find influential. It can lead to providing options to enable/disable specific elements (e.g., scarcity countdown timers) or personalize their shopping interface according to their preferences. This can reduce visual clutter and enhance the user experience.</t>
+  </si>
+  <si>
+    <t>EP-31</t>
+  </si>
+  <si>
+    <t>EP-32</t>
+  </si>
+  <si>
+    <t>EP-33</t>
+  </si>
+  <si>
+    <t>EP-34</t>
+  </si>
+  <si>
+    <t>EP-35</t>
+  </si>
+  <si>
+    <t>EP-36</t>
+  </si>
+  <si>
+    <t>EP-37</t>
+  </si>
+  <si>
+    <t>EP-38</t>
+  </si>
+  <si>
+    <t>EP-39</t>
+  </si>
+  <si>
+    <t>EP-40</t>
+  </si>
+  <si>
+    <t>EP-41</t>
+  </si>
+  <si>
+    <t>EP-42</t>
+  </si>
+  <si>
+    <t>EP-43</t>
+  </si>
+  <si>
+    <t>EP-44</t>
+  </si>
+  <si>
+    <t>EP-45</t>
+  </si>
+  <si>
+    <t>EP-46</t>
+  </si>
+  <si>
+    <t>EP-47</t>
+  </si>
+  <si>
+    <t>EP-48</t>
+  </si>
+  <si>
+    <t>EP-49</t>
+  </si>
+  <si>
+    <t>EP-50</t>
+  </si>
+  <si>
+    <t>EP-51</t>
+  </si>
+  <si>
+    <t>EP-52</t>
+  </si>
+  <si>
+    <t>EP-53</t>
+  </si>
+  <si>
+    <t>EP-54</t>
+  </si>
+  <si>
+    <t>EP-55</t>
+  </si>
+  <si>
+    <t>EP-56</t>
+  </si>
+  <si>
+    <t>EP-57</t>
+  </si>
+  <si>
+    <t>EP-58</t>
+  </si>
+  <si>
+    <t>EP-59</t>
+  </si>
+  <si>
+    <t>EP-60</t>
+  </si>
+  <si>
+    <t>BinCam: Designing for Engagement with Facebook for Behavior Change</t>
+  </si>
+  <si>
+    <t>Rob Comber Anja Thieme Ashur Rafiev Nick Taylor Nicole KrÃ¤mer Patrick Olivier</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-642-40480-1_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper we continue work to investigate how we can engage young adults in behaviors of recycling and the prevention of food waste through social media and persuasive and ubiquitous computing systems. Our previous work with BinCam, a two-part design combining a system for the collection of waste-related behaviors with a Facebook application, suggested that although this ubiquitous system could raise awareness of recycling behavior, engagement with social media remained low. In this paper we reconsider our design in terms of engagement, examining both the theoretical and practical ways in which engagement can be designed for. This paper presents findings from a new user study exploring the re-design of the social media interface following this analysis. By incorporating elements of gamification, social support and improved data visualization, we contribute insights on the relative potential of these techniques to engage individuals across the lifespan of a system’s deployment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engagement, Facebook, Sustainability, Recycling, Gamification, Social influence, Persuasive technology. </t>
+  </si>
+  <si>
+    <t>Human-Computer Interaction INTERACT 2013</t>
+  </si>
+  <si>
+    <t>PE-30</t>
+  </si>
+  <si>
+    <t>PE-31</t>
+  </si>
+  <si>
+    <t>PE-32</t>
+  </si>
+  <si>
+    <t>PE-33</t>
+  </si>
+  <si>
+    <t>PE-34</t>
+  </si>
+  <si>
+    <t>PE-35</t>
+  </si>
+  <si>
+    <t>PE-36</t>
+  </si>
+  <si>
+    <t>PE-37</t>
+  </si>
+  <si>
+    <t>PE-38</t>
+  </si>
+  <si>
+    <t>PE-39</t>
+  </si>
+  <si>
+    <t>PE-40</t>
+  </si>
+  <si>
+    <t>PE-41</t>
+  </si>
+  <si>
+    <t>PE-42</t>
+  </si>
+  <si>
+    <t>PE-43</t>
+  </si>
+  <si>
+    <t>PE-44</t>
+  </si>
+  <si>
+    <t>PE-45</t>
+  </si>
+  <si>
+    <t>PE-46</t>
+  </si>
+  <si>
+    <t>PE-47</t>
+  </si>
+  <si>
+    <t>PE-48</t>
+  </si>
+  <si>
+    <t>PE-49</t>
+  </si>
+  <si>
+    <t>In our previous study, participants’ sense of the system as one for behavior change had led to feelings of guilt, primarily about differences between attitudes and actual behavior.</t>
+  </si>
+  <si>
+    <t>The Dark (Patterns) Side of UX Design</t>
+  </si>
+  <si>
+    <t>Gray, Colin M.; Kou, Yubo; Battles, Bryan; Hoggatt, Joseph; Toombs, Austin L.</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2018 CHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>10.1145/3173574.3174108</t>
+  </si>
+  <si>
+    <t>Interest in critical scholarship that engages with the complexity of user experience (UX) practice is rapidly expanding, yet the vocabulary for describing and assessing criticality in practice is currently lacking. In this paper, we outline and explore the limits of a specific ethical phenomenon known as "dark patterns," where user value is supplanted in favor of shareholder value. We assembled a corpus of examples of practitioner-identified dark patterns and performed a content analysis to determine the ethical concerns contained in these examples. This analysis revealed a wide range of ethical issues raised by practitioners that were frequently conflated under the umbrella term of dark patterns, while also underscoring a shared concern that UX designers could easily become complicit in manipulative or unreasonably persuasive practices. We conclude with implications for the education and practice of UX designers, and a proposal for broadening research on the ethics of user experience.</t>
+  </si>
+  <si>
+    <t>dark patterns; ethics; design responsibility; design character; practice-led research; ux practice</t>
+  </si>
+  <si>
+    <t>While not all interactions that take on these strategies are neces sarily equally "dark" in terms of design intent and motivation, they do have the potential to produce poor user outcomes, or force users to interact in ways that are out of alignment with their goals. Paradoxically, some instances of dark patterns test well from a usability perspective (e.g., forced action, nagging), but do so at the expense of user choice.
+It is interesting to note that many of the strategies we identified in our corpus bear striking resemblance to the persuasive strategies proposed by Fogg [26]. Persuasive strategies such as tunneling or reduc tion have strong similiarity to the forced action and obstruction dark patterns strategies. Similarly, tailoring and suggestion may result in strategies like interface interference. Finally, conditioning could include strategies such as sneaking or nag ging. What this indicates is that many persuasive strategies are already being used for nefarious purposes
+The emergence and use of dark patterns as an ethical concern in HCI and UX design reveals that design is rarely a solitary endeavor; in contrast, the complex entangle ment among designer responsibility, organizational pressures, and neoliberal values often politicizes and prioritizes the prof itability of design above other social motivations</t>
+  </si>
+  <si>
+    <t>One such example from the social media app Instagram includes a modal selection where the user is prompted with a message asking them to turn on notifications for the app (Figure 2). Only two options are present, "Not Now" and "OK," which gives the user no ability to discontinue the prompts.
+in terruption relates to Google’s location services. This instance asks the user to allow Google to collect anonymous location data at any time, even when apps are not running. There are two options, "Agree" and "Disagree" to select, and a substan tially smaller "Don’t show again" check-box. This example provides similar options as the previous example, but does so in a manner that entices users to agree if they want the nagging to cease.
+A third example targets drivers for the ride-sharing app Uber. When a driver attempts to stop for the day, the app prompts them to continue in order to reach an arbitrary goal for the day. This interruption takes advantage of a person’s natural tendency to "income target," or set an income goal for the day, and makes the driver more likely to continue driving to reach the arbitrary income goal.
+One example of obstruction from our corpus is the job listing site theladders.com. The site requires an ac count to browse jobs and a premium, paid account to apply for a position, even though many jobs found on the site are also advertised elsewhere. If the user does not pay for a premium account and wishes to search for the job elsewhere, they will discover that text highlighting is disabled through Javascript on the site. This design choice manifests as a barrier to the user, encouraging them to pay for a premium membership by disabling expected functionality.
+In our corpus, Stamps.com follows this pattern by making it difficult to close an account on their site, requiring the user to call during business hours to do so. They also hide this information on their site in the frequently asked questions section to make it difficult to cancel the service. This example indicates how "roach motel" can invoke other types of dark patterns, in this instance hidden information, to serve its purpose.
+Brignull’s "Price Comparison Prevention" pattern seeks to dampen the effect of market competition by making direct price comparisons between products and services difficult. Tactics could include making important product information (product ID, price) un-copyable (as in theladders.com, above), so as to prevent users from pasting such information into a search bar or another site.
+ Intermediate Currency is another subtype of obstruction where users spend real money to purchase a virtual currency which is then spent on a good or service. The goal of this pattern is to disconnect users from the real dollar value spent in order to cause the user to interact differently with the virtual currency. This may result in users spending the currency differently than they would with fiat currency. This pattern typically manifests as an in-app purchase for mobile games. 
+One example of sneaking from Salesforce.com requires the user to consent to a privacy statement before they can unsubscribe from an email newsletter (Figure 4). This privacy statement allows Salesforce to sell the user’s information to other countries and if the user fails to read the fine print, they would unknowingly fall victim to this scheme.
+Brignull’s "Hidden Costs" pattern provides users with a late disclosure of certain costs. In this pattern, a certain price is advertised for a good or service, only to later be changed due to the addition of taxes and fees, limited time conditions, or unusually high shipping costs. An example from our corpus describes subscription prices on the website for the Boston Globe; while the banner ad suggests a price of 99¢, when the user clicks through to the sign up page, they are notified that this is a trial offer for only four weeks.
+Brignull’s "Sneak into Basket" pattern adds items not chosen by the user to their online shopping cart, often claiming to be a suggestion based on other purchased items. This may cause the user to unintentionally buy these items if they do not notice them prior to checkout. One example of this behavior from SportsDirect.com adds an unwanted item into the cart, which displays on checkout and can only be removed by exiting the checkout process and returning to a previous screen.
+Brignull’s "Bait and Switch" pattern makes it apparent that a certain action will cause a certain result, only to have it cause a different, likely undesired result. One example of this behavior  from our corpus includes having a red "X" button perform an action other than closing a popup window. Another example relies on manipulation of muscle memory in the mobile game "Two Dots," where a button to buy more moves is positioned in the same location where a button to start a new game is normally positioned, thus increasingly the likelihood of being accidentally triggered by the user.
+Wedefine hidden information as options or actions relevant to the user but not made immediately or readily accessible. Hid den information may manifest as options or content hidden in f ine print, discolored text, or a product’s terms and conditions statement. The primary motivator behind hidden information is the disguising of relevant information as irrelevant. One example we collected through our corpus generation is from santander.com. When a user registers for an account, they are given an option to accept the terms and conditions above a long list of small text. Hidden within this text is a small checkbox to opt out of the bank selling the user’s information.
+We define preselection as any situation where an option is selected by default prior to user interaction. Preselection usu ally manifests as a default choice that the shareholder of the product wishes the user to choose; however, this choice is often against the user’s interests or may provide unintended consequences. The user is more likely to agree to the default option if they believe the product has their best interests in mind.
+Aesthetic manipulation is any manipulation of the user inter face that deals more directly with form than function. This includes design choices that focus the user’s attention on one thing to distract them from or convince them of something else (e.g., Brignull’s "Misdirection"). One example from our corpus is from the website expertsexchange.com, a medium in which questions asked can be answered by experts in the field. When viewing a question, the site makes it appear that the answer to the question is behind a paywall, but it is actually accessible at the bottom of the page without paying. 
+One example from our corpus is from the Snapchat owned company Spectacles. On their site upon checkout, the user is shown a countdown timer that supposedly ensures delivery in 2-4 weeks if the user buys the product within the time window; however, if the user lets the timer reach 0, the timer resets.
+Another example from the website delish.com prompts the user to sign up for a newsletter. The option for declining is the demeaning phrase, "No thanks, I’ll have a microwave dinner tonight," using copy that evokes emotion and perhaps encourages the user to change their intended action.
+One example of false hierarchy from our corpus comes from the TuneUp app (Figure 6). Upon installing utili ties for the app, the user is given a decision between "express" installation, labeled as "recommended," or "custom" installa tion, labeled as "advanced." The "custom" option is in gray text, but still clickable, giving the user the false impression that the option is disabled.
+An additional exemplar of forced action can be drawn from sales force.com in which the user must agree to allow the site to sell their information to other countries in order to unsubscribe from their mailing list. In this case, the user is required to perform a specific action (i.e., sell their personal information) in order to access specific functionality (i.e., unsubscribe).
+Social Pyramid requires users to recruit other users to use the service. This is a method commonly used in social media applications and online games. Users can invite their friends to use the service and are incentivized with benefits from the platform. 
+One common instance of gamification is "grinding," a term used in many video games to describe the repeated process of killing monsters to gain experience points in order to level up the user’s character. One example from our corpus is from the mobile game Candy Crush Saga. The game includes levels that are impossible to complete in order to urge users to buy powerups or extra lives. If the player doesn’t purchase anything from the game, they will have to play the game for a longer period of time in order to achieve the same result they would have from paying.</t>
+  </si>
+  <si>
+    <t>One such example from the social media app Instagram includes a modal selection where the user is prompted with a message asking them to turn on notifications for the app (Figure 2). Only two options are present, "Not Now" and "OK," which gives the user no ability to discontinue the prompts.
+A third example targets drivers for the ride-sharing app Uber. When a driver attempts to stop for the day, the app prompts them to continue in order to reach an arbitrary goal for the day. This interruption takes advantage of a person’s natural tendency to "income target," or set an income goal for the day, and makes the driver more likely to continue driving to reach the arbitrary income goal.
+One example of obstruction from our corpus is the job listing site theladders.com. The site requires an ac count to browse jobs and a premium, paid account to apply for a position, even though many jobs found on the site are also advertised elsewhere. If the user does not pay for a premium account and wishes to search for the job elsewhere, they will discover that text highlighting is disabled through Javascript on the site. This design choice manifests as a barrier to the user, encouraging them to pay for a premium membership by disabling expected functionality.
+In our corpus, Stamps.com follows this pattern by making it difficult to close an account on their site, requiring the user to call during business hours to do so. They also hide this information on their site in the frequently asked questions section to make it difficult to cancel the service. This example indicates how "roach motel" can invoke other types of dark patterns, in this instance hidden information, to serve its purpose.
+Brignull’s "Price Comparison Prevention" pattern seeks to dampen the effect of market competition by making direct price comparisons between products and services difficult. Tactics could include making important product information (product ID, price) un-copyable (as in theladders.com, above), so as to prevent users from pasting such information into a search bar or another site.
+ Intermediate Currency is another subtype of obstruction where users spend real money to purchase a virtual currency which is then spent on a good or service. The goal of this pattern is to disconnect users from the real dollar value spent in order to cause the user to interact differently with the virtual currency. This may result in users spending the currency differently than they would with fiat currency. This pattern typically manifests as an in-app purchase for mobile games. 
+One example of sneaking from Salesforce.com requires the user to consent to a privacy statement before they can unsubscribe from an email newsletter (Figure 4). This privacy statement allows Salesforce to sell the user’s information to other countries and if the user fails to read the fine print, they would unknowingly fall victim to this scheme.
+Brignull’s "Hidden Costs" pattern provides users with a late disclosure of certain costs. In this pattern, a certain price is advertised for a good or service, only to later be changed due to the addition of taxes and fees, limited time conditions, or unusually high shipping costs. An example from our corpus describes subscription prices on the website for the Boston Globe; while the banner ad suggests a price of 99¢, when the user clicks through to the sign up page, they are notified that this is a trial offer for only four weeks.
+Brignull’s "Sneak into Basket" pattern adds items not chosen by the user to their online shopping cart, often claiming to be a suggestion based on other purchased items. This may cause the user to unintentionally buy these items if they do not notice them prior to checkout. One example of this behavior from SportsDirect.com adds an unwanted item into the cart, which displays on checkout and can only be removed by exiting the checkout process and returning to a previous screen.
+Brignull’s "Bait and Switch" pattern makes it apparent that a certain action will cause a certain result, only to have it cause a different, likely undesired result. One example of this behavior  from our corpus includes having a red "X" button perform an action other than closing a popup window. Another example relies on manipulation of muscle memory in the mobile game "Two Dots," where a button to buy more moves is positioned in the same location where a button to start a new game is normally positioned, thus increasingly the likelihood of being accidentally triggered by the user.
+Wedefine hidden information as options or actions relevant to the user but not made immediately or readily accessible. Hid den information may manifest as options or content hidden in f ine print, discolored text, or a product’s terms and conditions statement. The primary motivator behind hidden information is the disguising of relevant information as irrelevant. One example we collected through our corpus generation is from santander.com. When a user registers for an account, they are given an option to accept the terms and conditions above a long list of small text. Hidden within this text is a small checkbox to opt out of the bank selling the user’s information.
+Aesthetic manipulation is any manipulation of the user inter face that deals more directly with form than function. This includes design choices that focus the user’s attention on one thing to distract them from or convince them of something else (e.g., Brignull’s "Misdirection"). One example from our corpus is from the website expertsexchange.com, a medium in which questions asked can be answered by experts in the field. When viewing a question, the site makes it appear that the answer to the question is behind a paywall, but it is actually accessible at the bottom of the page without paying. 
+One example from our corpus is from the Snapchat owned company Spectacles. On their site upon checkout, the user is shown a countdown timer that supposedly ensures delivery in 2-4 weeks if the user buys the product within the time window; however, if the user lets the timer reach 0, the timer resets.
+Another example from the website delish.com prompts the user to sign up for a newsletter. The option for declining is the demeaning phrase, "No thanks, I’ll have a microwave dinner tonight," using copy that evokes emotion and perhaps encourages the user to change their intended action.
+One example of false hierarchy from our corpus comes from the TuneUp app (Figure 6). Upon installing utili ties for the app, the user is given a decision between "express" installation, labeled as "recommended," or "custom" installa tion, labeled as "advanced." The "custom" option is in gray text, but still clickable, giving the user the false impression that the option is disabled.
+An additional exemplar of forced action can be drawn from sales force.com in which the user must agree to allow the site to sell their information to other countries in order to unsubscribe from their mailing list. In this case, the user is required to perform a specific action (i.e., sell their personal information) in order to access specific functionality (i.e., unsubscribe).
+Social Pyramid requires users to recruit other users to use the service. This is a method commonly used in social media applications and online games. Users can invite their friends to use the service and are incentivized with benefits from the platform. 
+One common instance of gamification is "grinding," a term used in many video games to describe the repeated process of killing monsters to gain experience points in order to level up the user’s character. One example from our corpus is from the mobile game Candy Crush Saga. The game includes levels that are impossible to complete in order to urge users to buy powerups or extra lives. If the player doesn’t purchase anything from the game, they will have to play the game for a longer period of time in order to achieve the same result they would have from paying.</t>
+  </si>
+  <si>
+    <t>Impulse Buying: Design Practices and Consumer Needs</t>
+  </si>
+  <si>
+    <t>Moser, Carol; Schoenebeck, Sarita Y.; Resnick, Paul</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2019 CHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>10.1145/3290605.3300472</t>
+  </si>
+  <si>
+    <t>E-commerce sites have an incentive to encourage impulse buying, even when not in the consumer's best interest. This study investigates what features e-commerce sites use to encourage impulse buying and what tools consumers desire to curb their online spending. We present two studies: (1) a systematic content analysis of 200 top e-commerce websites in the U.S. and (2) a survey of online impulse buyers (N=151). From Study 1, we find that e-commerce sites contain multiple features that encourage impulsive buying, including those that lower perceived risks, leverage social influence, and enhance perceived proximity to the product. Conversely, from Study 2 we find that online impulse buyers want tools that (a) encourage deliberation and avoidance, (b) enforce spending limits and postponement, (c) increase checkout effort, (d) make costs more salient, and (e) reduce product desire. These findings inform the design of "friction” technologies that help users make more deliberative consumer choices.</t>
+  </si>
+  <si>
+    <t>dark patterns; behavior change; e-commerce; self-control</t>
+  </si>
+  <si>
+    <t>The most common impulse buying features, found in 75% of websites, included mem ber/rewards program discounts, discounted prices, product ratings/reviews, sale pages, product interactivity (e.g., photo zoom/spin), and returns/refunds. The least common features included entry into a sweepstakes with a purchase, display ing a countdown clock for limited-time product availability, quick check-out buttons, a discount for the first purchase made on the site, virtual dressing rooms, and showing that social media friends have purchased the product. Fewer than 3%ofwebsites included any one of these features</t>
+  </si>
+  <si>
+    <t>Encourage Deliberation or Reflection. Participants described wanting features that encourage deliberation or reflection by,
+Reduce Product Desire. Some participants wanted tools that helped reduce their desire for products by emphasizing negative product attributes or by providing more objective product presentations. For example, “Honest descriptions as far as whatsomethingreally does andis madeof ”.Participants wanted tools that“highlight the most negative product reviews” (55.6%, N=84), that “shows me the product in a less glamorized way” (41.7%, N=63), and that hides text like “limited time offer or only a few left in stock” (35.1%, N=53)</t>
+  </si>
+  <si>
+    <t>Creating a Framework to Support the Critical Consideration of Dark Design Aspects in Free-to-Play Apps</t>
+  </si>
+  <si>
+    <t>Fitton, Dan; Read, Janet C.</t>
+  </si>
+  <si>
+    <t>Proceedings of the 18th ACM International Conference on Interaction Design and Children</t>
+  </si>
+  <si>
+    <t>10.1145/3311927.3323136</t>
+  </si>
+  <si>
+    <t>The majority of mobile apps are free-to-play and so include a variety of forms of advertising and other mechanisms for monetization. These monetization mechanisms often have deceptive elements and closely resemble what designers know as Dark Patterns. In-app advertising and purchasing have been studied with adults but, to-date, younger users have received comparatively little consideration despite their increased susceptibility to manipulation. This paper addresses the gap in research by creating the ADD (App Dark Design) framework which brings together insights from practitioners, theory from existing related research, and the findings from a user study which gathered qualitative data from 39 girls aged 12-13 years. We also derive a set of emerging issues and identify future research questions. This work is the first of its kind to create a framework to support the critical consideration of the design of free-to-play apps. We have identified a set of problematic Dark Design aspects that young people across the world are encountering in their apps every day and we hope this paper will both raise awareness and stimulate further research work on this important topic.</t>
+  </si>
+  <si>
+    <t>Children; Apps; Free-to-play; Freemium; Monetization</t>
+  </si>
+  <si>
+    <t>Both apps also appeared to use Inappropriate: Psychological Manipulation in order to encourage the player to purchase in-game content; such as providing encouragement to purchase additional outfits then providing disparaging remarks through the in-game narration and other characters when they were not purchased. The purchasing mechanism aligned with two types from the ADD framework; Monetary: Intermediate Currencies as ‘gems’ had to be purchased which could then be spent in the game, and the act of purchasing the outfits aligned with Monetery: Permanent Enhancements.</t>
+  </si>
+  <si>
+    <t>UI Dark Patterns and Where to Find Them: A Study on Mobile Applications and User Perception</t>
+  </si>
+  <si>
+    <t>Di Geronimo, Linda; Braz, Larissa; Fregnan, Enrico; Palomba, Fabio; Bacchelli, Alberto</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2020 CHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>10.1145/3313831.3376600</t>
+  </si>
+  <si>
+    <t>A Dark Pattern (DP) is an interface maliciously crafted to deceive users into performing actions they did not mean to do. In this work, we analyze Dark Patterns in 240 popular mobile apps and conduct an online experiment with 589 users on how they perceive Dark Patterns in such apps. The results of the analysis show that 95% of the analyzed apps contain one or more forms of Dark Patterns and, on average, popular applications include at least seven different types of deceiving interfaces. The online experiment shows that most users do not recognize Dark Patterns, but can perform better in recognizing malicious designs if informed on the issue. We discuss the impact of our work and what measures could be applied to alleviate the issue.</t>
+  </si>
+  <si>
+    <t>dark patterns; ethical design; user experiments</t>
+  </si>
+  <si>
+    <t>Some participants explained that Dark Patterns are so widely spread and common among modern applications that they become part of the normal in teraction flow when using apps.</t>
+  </si>
+  <si>
+    <t>31% of the apps contain Privacy Zuckering, whose most common cause is privacy conditions accepted upon clicking some buttons or continuing with the registration process. We considered only cases where these labels were particularly small and hard to f ind. Often, this information was greyed or hidden by some other UI elements. On some other occasions, the app would activate by default the ‘send usage data’ in the setting page. Also, particularly popular applications, such as Firefox [10] and Reddit [17], included this DP instance.
+Among the apps that allowed us to login, the vast majority did not include a ‘delete account’ feature within the app. Although we connected through our Gmail account whenever available, we believe that app developers should include at least a link to the Gmail account management page from their apps, since some users may be unaware of its existence or find it hard to reach it. Among the apps that do not include this feature, we found Spotify, Wish, Instagram [13], and Amazon Photos [2].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Often these pop-ups gave one or more options to the user, and many times the alternative that benefited the app was aesthetically favored. This contributed to the False Hierarchy class being present in 61% of the apps.
+31% of the apps contain Privacy Zuckering, whose most common cause is privacy conditions accepted upon clicking some buttons or continuing with the registration process. We considered only cases where these labels were particularly small and hard to f ind. Often, this information was greyed or hidden by some other UI elements. On some other occasions, the app would activate by default the ‘send usage data’ in the setting page. Also, particularly popular applications, such as Firefox [10] and Reddit [17], included this DP instance.
+Among the apps that allowed us to login, the vast majority did not include a ‘delete account’ feature within the app. Although we connected through our Gmail account whenever available, we believe that app developers should include at least a link to the Gmail account management page from their apps, since some users may be unaware of its existence or find it hard to reach it. Among the apps that do not include this feature, we found Spotify, Wish, Instagram [13], and Amazon Photos [2].
+</t>
+  </si>
+  <si>
+    <t>Exploring the Requirements and Design of Persuasive Intervention Technology to Combat Digital Addiction</t>
+  </si>
+  <si>
+    <t>Amen Alrobai John McAlaney Huseyin Dogan Keith Phalp Raian Ali</t>
+  </si>
+  <si>
+    <t>Human-Centered and Error-Resilient Systems Development</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-319-44902-9_9</t>
+  </si>
+  <si>
+    <t>Digital Addiction (DA) is an emerging behavioural phenomenon that denotes an obsessive and problematic usage of digital media. Such usage could meet various criteria of an addictive behaviour such as salience, conflict, toler ance and withdrawal symptoms and, hence, it would raise new challenges and ethical considerations on the way we engineer software. Luckily, software as a medium for such addictive usage could be also a medium for enacting a behav iour change and prevention strategy towards a regulated usage. However, due to the recentness of such software-based interventions, we still need a body of knowledge on how to develop them. In this paper, we conduct empirical re search, through a diary study and an online forum content analysis, to under stand users’ perception of such emerging systems. The results shed the light on a range of design aspects and risks when building and validating such persua sive intervention technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Addiction, e-Heath design, design for behavioural change. </t>
+  </si>
+  <si>
+    <t>While comparing the performance with peers or self can help to motivate users progressive change, this social element may lead to negative experience, such as un healthy competition. Also, the competition between peers is likely to impact self-esteem and self-efficacy (our perception of regulating the behaviour). 
+The risk here is that the competition can take an adverse form, i.e. towards more use, or becomes itself addictive. For example, a user commented, “I can see making it competitive to worsen the addiction, would members want to get better and therefore get addicted to the points/rewards/making their ava tar better?”.</t>
+  </si>
+  <si>
+    <t>Conceptualising Gamification Risks to Teamwork within Enterprise</t>
+  </si>
+  <si>
+    <t>Abdullah Algashami Sainabou Cham Laura Vuillier Angelos Stefanidis Keith Phalp Raian Ali</t>
+  </si>
+  <si>
+    <t>The Practice of Enterprise Modeling</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-030-02302-7_7</t>
+  </si>
+  <si>
+    <t>Gamification in businesses refers to the use of technology-assisted solutions to boost or change staff attitude, perception and behaviour, about the individual or collective goals and tasks. Previous research indicated that gamifi cation techniques could introduce risks to the business environment, and not on ly fail to make a positive change, but also raise concerns about ethics, quality of work, and well-being in a workplace. Although the problem is already recognised in principle, there is still a need to clarify and concretise those risks, their factors and their relation to the gamification dynamics and mechanics. In this paper, we focus on gamification risks related to teamwork within the enterprise. To address this, we conducted three-stage empirical research in two large-scale businesses using gamification in their workplace, including two months’ observation and interview study. We outline various risk mitigation strategies and map them to primary types of gamification risks. By accomplish ing such conceptualisation, we pave the way towards methods to model, detect and predict gamification risks on teamwork and recommend design practices and strategies to tackle them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamification, Risk Assessment, Human Factors in Computing. </t>
+  </si>
+  <si>
+    <t>Visibility. It was noticed in the call centre observed that some staff had concerns re garding what would be visible to colleagues, either in the same or other teams. For example, displaying the number of calls each team member has answered could im pact the coherence of the group via dividing staff into new intra-groups based on their performance in a task [39]. Staff preferred their current performance to be visible to their managers or themselves only, with the choice to share it with others.</t>
+  </si>
+  <si>
+    <t>In a teamwork setting, the accessibility of staff in formation in the monitoring technique might have a negative influence on the team work. For example, one agent in the call centre commented: “I prefer to have the ability to decide what the system can access regarding my personal information and also what my team members are able to access”. Risks like infringe staff autonomy can result from monitoring staff as they perform a task. For example, a supervisor in the call centre mentioned that they could access and monitor staff calls at any time.</t>
+  </si>
+  <si>
+    <t>Visibility. It was noticed in the call centre observed that some staff had concerns re garding what would be visible to colleagues, either in the same or other teams. For example, displaying the number of calls each team member has answered could im pact the coherence of the group via dividing staff into new intra-groups based on their performance in a task [39]. Staff preferred their current performance to be visible to their managers or themselves only, with the choice to share it with others.
+In a teamwork setting, the accessibility of staff in formation in the monitoring technique might have a negative influence on the team work. For example, one agent in the call centre commented: “I prefer to have the ability to decide what the system can access regarding my personal information and also what my team members are able to access”. Risks like infringe staff autonomy can result from monitoring staff as they perform a task. For example, a supervisor in the call centre mentioned that they could access and monitor staff calls at any time.</t>
+  </si>
+  <si>
+    <t>Understanding Ethical Thinking in Design Education: A Linkographic Study</t>
+  </si>
+  <si>
+    <t>Ahuja, Sanju; Kumar, Jyoti</t>
+  </si>
+  <si>
+    <t>Proceedings of the 6th Annual Symposium on HCI Education</t>
+  </si>
+  <si>
+    <t>10.1145/3658619.3658620</t>
+  </si>
+  <si>
+    <t>The use of dark patterns has become ubiquitous within digital platforms. It has been argued that to address this issue, there is a need to integrate ethics education within design pedagogy and practice. This paper reports a lab protocol study conducted to observe if and how sensitizing design students about the issue can affect their design thinking. For this study, n=15 students attended a 2-hour workshop focused on persuasive HCI design, dark patterns and ethics. Pre/post design sessions following the think aloud protocol were conducted to observe the effects of the workshop. Post-workshop interviews were conducted to gather student perspectives. The data collected from the design sessions was analyzed using the linkography technique. The findings reveal the qualitative nature of ethics related design considerations that emerge when participants are engaged in an ethically nuanced design task. It also shows how ethics sensitization can shape convergent and divergent thinking processes.</t>
+  </si>
+  <si>
+    <t>dark patterns; design education; design thinking; ethical thinking; linkography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview findings show that ethics sensitization in design edu cation can fulfil a number of students’ needs.  it is argued here that continuous and integrated ethics sensitization within design curriculums is necessary to develop students’ skill and confidence to engage with the complexity and multidimensionality of ethics in design. This can help students learn to prioritize ethical values based on context, assess tradeoffs and ensure that ethics is not conflated with stakeholder preferences. </t>
+  </si>
+  <si>
+    <t>Designing Dynamic and Personalized Nudges</t>
+  </si>
+  <si>
+    <t>Dalecke, Sandor; Karlsen, Randi</t>
+  </si>
+  <si>
+    <t>Proceedings of the 10th International Conference on Web Intelligence, Mining and Semantics</t>
+  </si>
+  <si>
+    <t>10.1145/3405962.3405975</t>
+  </si>
+  <si>
+    <t>Nudging is about influencing people to make decisions that are beneficial to society and individuals. We are in particular concerned with using nudges to cause a behavioral change for persons, where healthier or environmentally friendlier behavior may be the goal. As people make more and more decisions in a digital context, digital nudging has steadily become more relevant. With today's technology, it is feasible to dynamically generate highly personalized nudges, using information on the person receiving the nudge, such as their intention and the situation they are in. This paper presents a new nudge model, designed with personalization in mind. We propose to use personal and situational data to generate the most suitable nudge designed from nudge components. The presented nudges should be transparent, helpful and effective to the user.</t>
+  </si>
+  <si>
+    <t>personalization; Digital nudging; dynamic nudge design</t>
+  </si>
+  <si>
+    <t>Privacy is another concern for a nudging system. To provide a smart nudge, a user profile containing personal information is required. To automatically detect user behavior and reactions to nudging, user information (such as activity, location, events and capabilities) are collected, stored and analyzed. An important re quirement to a smart nudging system is to preserve privacy of users and follow the General Data Protection Regulation (GDPR)</t>
+  </si>
+  <si>
+    <t>Freedom of choice has to be preserved. The nudging system has to provide the user with the option to choose a different route or mode of transportation and still receive useful information. This implies that after having received a nudge, the user can use the application to obtain practical information about a different activity. 
+Adhere to the nudge goal. A nudging system should never nudge for an activity that oppose the nudging goal. For example, if the user in general prefer using the bicycle, a nudge for taking the bus should not be given. However, to support the freedom of choice requirement, the system should provide the user with practical information concerning bus travel, if requested by the user.
+Transparency. Nudges should be transparent. This includes the nudges themselves, the goal of the nudges, the fact that nudging is used and information on how and why the nudges are generated. Offering a nudging application and making the users explicitly aware of the application’s purpose and goal, provides a level of transparency.
+Privacy is another concern for a nudging system. To provide a smart nudge, a user profile containing personal information is required. To automatically detect user behavior and reactions to nudging, user information (such as activity, location, events and capabilities) are collected, stored and analyzed. An important re quirement to a smart nudging system is to preserve privacy of users and follow the General Data Protection Regulation (GDPR)</t>
+  </si>
+  <si>
+    <t>Intelligent positive computing with mobile, wearable, and IoT devices: Literature review and research directions</t>
+  </si>
+  <si>
+    <t>Lee, Uichin; Han, Kyungsik; Cho, Hyunsung; Chung, Kyong-Mee; Hong, Hwajung; Lee, Sung-Ju; Noh, Youngtae; Park, Sooyoung; Carroll, John M.</t>
+  </si>
+  <si>
+    <t>Ad Hoc Networks</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.adhoc.2018.08.021</t>
+  </si>
+  <si>
+    <t>The use of mobile, wearable, and Internet of Things (IoT) technologies fosters unique opportunities for designing novel intelligent positive computing services that address various health and well-being issues such as stress and depression. As positive computing research is often cross-disciplinary, it is difficult to acquire holistic perspectives on the design, implementation, and evaluation of intelligent positive computing systems with mobile, wearable, and IoT technologies. To bridge this gap, we propose a conceptual framework and review the key components to provide guidelines for intelligent positive computing systems research. We also present several practical service scenarios and provide useful insights on opportunities and challenges. By critically reflecting on the literature and scenarios, we suggest several research directions on the core topics in intelligent positive computing systems research. In addition, we discuss concerns and challenges such as technology dependence, abandonment, side effects, privacy, and ethical issues.</t>
+  </si>
+  <si>
+    <t>Persuasive technologies; Evidence-based design and intervention; Internet-of-Things (IoT); Mobile and wearable technologies; Positive computing</t>
+  </si>
+  <si>
+    <t>Privacy issues must be carefully considered in the system de- sign, since systems could collect every single detail about individ- uals.</t>
+  </si>
+  <si>
+    <t>User data handling must be carefully performed, and minimal data should be collected and utilized. For privacy preservation, the mobile platform may consider implementing localized data pro- cessing such that private data do not leave a user’s mobile device, or at least unlinkable data are only transferred to the mobile cloud. Furthermore, system designers may adopt privacy preserving data mining techniques (e.g., preserving k -anonymity in location data sharing to avoid attackers from reconstructing invasive location in- formation).</t>
+  </si>
+  <si>
+    <t>A touching app voice thinking about ethics of persuasive technology through an analysis of mobile smoking-cessation apps</t>
+  </si>
+  <si>
+    <t>Rughiniş, Cosima; Rughiniş, Răzvan; Matei, Ştefania</t>
+  </si>
+  <si>
+    <t>Ethics and Information Technology</t>
+  </si>
+  <si>
+    <t>10.1007/s10676-016-9385-1</t>
+  </si>
+  <si>
+    <t>Ethics; Autonomy; Persuasive technology; Information technology; Philosophical aspects; Mobile apps; Social sciences; Smoking cessations</t>
+  </si>
+  <si>
+    <t>We study smoking-cessation apps in order to formulate a framework for ethical evaluation, analyzing apps as ‘medium’, ‘market’, and ‘genre’. We center on the value of user autonomy through truthfulness and self-un derstanding. Smoking-cessation apps usually communicate in an anonymous ‘app voice’, with little presence of pro fessional or other identified voices. Because of the fast and-frugal communication, truthfulness is problematic. Messages in the ‘quantification’ modules may be read as deceitfully accurate. The app voice frames smoking as a useless, damaging habit indicative of weakness of will, in a ‘cold-turkey’ frame of individual mind-over-body heroism. Thus apps contribute to a stigmatization of smokers and culpabilization of relapses. The potential to support user autonomy through diverse meaningful voices and person alized communication remains yet unused.</t>
+  </si>
+  <si>
+    <t>We study smoking-cessation apps in order to formulate a framework for ethical evaluation, analyzing apps as ‘medium’, ‘market’, and ‘genre’. We center on the value of user autonomy through truthfulness and self-un derstanding. Smoking-cessation apps usually communicate in an anonymous ‘app voice’, with little presence of pro fessional or other identified voices. Because of the fast and-frugal communication, truthfulness is problematic. Messages in the ‘quantification’ modules may be read as deceitfully accurate. The app voice frames smoking as a useless, damaging habit indicative of weakness of will, in a ‘cold-turkey’ frame of individual mind-over-body heroism. Thus apps contribute to a stigmatization of smokers and culpabilization of relapses. The potential to support user autonomy through diverse meaningful voices and person alized communication remains yet unused.
+Apps offer a wide array of information concerning smoking risks and their evolution after cessation, as well as infor mation concerning nicotine addiction, withdrawal symp toms, and strategies for managing cravings. While smoking-cessation app users have considerable opportuni ties to broaden their knowledge basis as regards nicotine dependence, truthfulness remains problematic.</t>
+  </si>
+  <si>
+    <t>Healthy competition: A qualitative study investigating persuasive technologies and the gamification of cycling</t>
+  </si>
+  <si>
+    <t>Barratt, Paul</t>
+  </si>
+  <si>
+    <t>Health and Place</t>
+  </si>
+  <si>
+    <t>10.1016/j.healthplace.2016.09.009</t>
+  </si>
+  <si>
+    <t>Cycling; GPS; Technology; Gamification; Applications</t>
+  </si>
+  <si>
+    <t>Changing socio-technical practices occurring within cycling are leading the pursuit, and its participants, to become ever more embedded into the networked digital world. GPS enabled mobile-technologies have introduced a new element of competition into recreational riding, whether on the road, competing over timed virtual segments, or online dissecting and comparing the data that has been logged and shared via dedicated ride-logging applications. In order to understand these technologies qualitative study using reflective diaries and semi-structured interviews has been conducted with experienced club cyclists who had fully experienced the effects of their arrival. These riders claim that the applications influence their route choice and motivate them to cycle more frequently, and at a greater intensity although the engagement changes over time. This paper explores how this increased motivation to exercise and compete is instigated, manifested and maintained in the everyday practices of cyclists, as well as the negative consequences of gamification.</t>
+  </si>
+  <si>
+    <t>Several riders had become concerned because the surveillance of the ride was having an impact upon their enjoyment of the activity. “Cycling is all about freedom from constraints the flow of the road and the ride. The route should be inspired by how you feel where YOUwant to go at that particular time. [With Strava] I found [that] more and more myroutechoice was driven by that damn app. And I wasn't enjoying it. I was aware that others would be looking at my rides and judging.” (Ken 39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclists become similarly ‘cognitively corrupted’ by entering into the highly scripted assemblage of tracking, logging and competition with its associate self and peer surveillance. The digital imperative of Strava provides both enjoyment but can also lead to dissatisfaction. “Sometimes I just want to ride my bike, but you can’t do that anymore, everything is monitored and recorded. You could leave your Garmin at home but I never do”. (Joanne 24)
+Several riders had become concerned because the surveillance of the ride was having an impact upon their enjoyment of the activity. “Cycling is all about freedom from constraints the flow of the road and the ride. The route should be inspired by how you feel where YOUwant to go at that particular time. [With Strava] I found [that] more and more myroutechoice was driven by that damn app. And I wasn't enjoying it. I was aware that others would be looking at my rides and judging.” (Ken 39)
+</t>
+  </si>
+  <si>
+    <t>Cyclists become similarly ‘cognitively corrupted’ by entering into the highly scripted assemblage of tracking, logging and competition with its associate self and peer surveillance. The digital imperative of Strava provides both enjoyment but can also lead to dissatisfaction. “Sometimes I just want to ride my bike, but you can’t do that anymore, everything is monitored and recorded. You could leave your Garmin at home but I never do”. (Joanne 24)</t>
+  </si>
+  <si>
+    <t>Through qualitative research this paper demonstrates the dynamics of sociotechnical change and engagement with technology in contemporary cycling.</t>
+  </si>
+  <si>
+    <t>Moderated Online Social Therapy: Viewpoint on the Ethics and Design Principles of a Web-Based Therapy System</t>
+  </si>
+  <si>
+    <t>D'Alfonso, Simon; Phillips, Jessica; Valentine, Lee; Gleeson, John; Alvarez-Jimenez, Mario</t>
+  </si>
+  <si>
+    <t>JMIR Mental Health</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2196/14866</t>
+  </si>
+  <si>
+    <t>The modern omnipresence of social media and social networking sites (SNSs) brings with it a range of important research questions. One of these concerns the impact of SNS use on mental health and well-being, a question that has been pursued in depth by scholars in the psychological sciences and the field of human-computer interaction. Despite this attention, the design choices made in the development of SNSs and the notion of well-being employed to evaluate such systems require further scrutiny. In this viewpoint paper, we examine the strategic design choices made in our development of an enclosed SNS for young people experiencing mental ill-health in terms of ethical and persuasive design and in terms of how it fosters well-being. In doing so, we critique the understanding of well-being that is used in much of the existing literature to make claims about the impact of a given technology on well-being. We also demonstrate how the holistic concept of eudaimonic well-being and ethical design of SNSs can complement one another.</t>
+  </si>
+  <si>
+    <t>persuasive technology; ethical design; well-being; eudaimonia; social network; Web-based intervention</t>
+  </si>
+  <si>
+    <t>However, it has become apparent that given the commercial pressures and the race for user attention, techniques of persuasion employed by pervasive social media and networking sites are more about capitalizing our attention and generating usage that is addictive rather than usage that prioritizes well-being and is in the user’s best interest.</t>
+  </si>
+  <si>
+    <t>EP-61</t>
+  </si>
+  <si>
+    <t>EP-62</t>
+  </si>
+  <si>
+    <t>Ensure that the system in general is not detrimental to well-being and that features and components of little value or those that have a negative impact on psychological health are avoided. 
+Develop content and features that promote mental health and well-being and that users are motivated to use for good reasons.</t>
+  </si>
+  <si>
+    <t>Supporting and Understanding Reflection on Persuasive Technology Through a Reflection Schema</t>
+  </si>
+  <si>
+    <t>Fahri Yetim</t>
+  </si>
+  <si>
+    <t>Persuasive Technology: Development of Persuasive and Behavior Change Support Systems</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-030-17287-9_4</t>
+  </si>
+  <si>
+    <t>Literature on persuasive technology acknowledges the importance of promoting reflection within design research and practice. This paper takes up a reflection framework suggested in previous research as assisting the reasoning of researchers, designers or other stakeholders concerning values, goals, actions, and their consequences in a project. It contributes to this research by demonstrat ing additional evidence for the applicability of the reflection framework by ap plying it to a published case. This work can guide researchers and practitioners by means of issues to be considered while reflecting on as well as communicating value-related aspects in a project, so that significant value choices and the ra tionale for actions taken to promote them are clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflection, Discourse Ethics, Value Sensitive Design, Research 
+Communication, Persuasive Technology </t>
+  </si>
+  <si>
+    <t>This paper takes up a reflection framework suggested in previous research as assisting the reasoning of researchers, designers or other stakeholders concerning values, goals, actions, and their consequences in a project.</t>
+  </si>
+  <si>
+    <t>Design methods for ethical persuasive computing</t>
+  </si>
+  <si>
+    <t>Davis, Janet</t>
+  </si>
+  <si>
+    <t>ACM International Conference Proceeding Series</t>
+  </si>
+  <si>
+    <t>10.1145/1541948.1541957</t>
+  </si>
+  <si>
+    <t>Value Sensitive Design and Participatory Design are two methodological frameworks that account for ethical issues throughout the process of technology design. Through analysis and case studies, this paper argues that such methods should be applied to persuasive technology-computer systems that are intended to change behaviors and attitudes. Copyright © 2009 ACM.</t>
+  </si>
+  <si>
+    <t>Design methods; Design; Persuasive technology; Participatory design; Technology; Technology designs; Value sensitive design; Systems analysis; Ethical issues; Design method; Methodological frameworks</t>
+  </si>
+  <si>
+    <t>Thus, the VSD methodology provides a powerful tool for exploring unintended ethical implications of technology. VSD provides one answer to the question that, to my mind, is left unasked and unanswered by Berdichevsky and Neuen schwander [2] and by Fogg [13]: How can the designer pre dict unintended outcomes of persuasive technology?
+Be yond these usual reasons to employ participatory design, involving potential users in design helps to avoid potential ethical issues with persuasive technology. Potentially vul nerable stakeholders can be engaged in the design process to ensure they have a say in the form the technology takes. Without participatory design, the designer stands outside of the community and intends to change the behavior of com munity members. With participatory design, the persuasive intent comes in part from community members who want to change the community’s behavior from within.</t>
+  </si>
+  <si>
+    <t>Persuasive computers: Perspectives and research directions</t>
+  </si>
+  <si>
+    <t>Fogg, B.J.</t>
+  </si>
+  <si>
+    <t>Conference on Human Factors in Computing Systems - Proceedings</t>
+  </si>
+  <si>
+    <t>The study of computers as persuasive technologies (called `captology') was introduced at CHI 97 as a new area of inquiry. This paper proposes definitions, perspectives, and research directions for further investigation of this field. A persuasive computer is an interactive technology that attempts to change attitudes or behaviors in some way. Perspective 1 describes how computers can inherit three types of intentionality: endogenous, exogenous, and autogenous. Perspective 2 presents the `Functional Triad,' which illustrates that computers can function as persuasive tools, media, and social actors. Perspective 3 presents a `levels of analysis' approach for captology, which include varying levels from individual to societal. Perspective 4 suggests a simple method for exploring the design space for persuasive computers. Perspective 5 highlights some ethical issues inherent in persuasive computing. The paper concludes by proposing seven directions for further research and design.</t>
+  </si>
+  <si>
+    <t>Information technology; Human computer interaction; Interactive computer systems; Persuasive computers</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/274644.274677</t>
+  </si>
+  <si>
+    <t>I believe that the simple gaitioss analysis in Table 5 helps show why the above technologies could be ethically questionable. In most cases above, companies stand to gain profit or information, while individuals stand to lose money, privacy, or freedom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the very least, a few core values should apply to all persuasive computing designs, such as avoiding deception, respecting individual privacy, and enhancing personal freedom.
+Examine effectiveness and effects: Researchers should also assess the effectiveness (the intended impact) and the effects (the unintended side-effects) of persuasive technologies or strategies. </t>
+  </si>
+  <si>
+    <t>Explainable Persuasion in Interactive Design</t>
+  </si>
+  <si>
+    <t>D. Cemiloglu; M. Catania; R. Ali</t>
+  </si>
+  <si>
+    <t>2021 IEEE 29th International Requirements Engineering Conference Workshops (REW)</t>
+  </si>
+  <si>
+    <t>Persuasive technology refers to the use of digital means to influence attitude, behaviour, and decisions. While a professional design of persuasive interfaces shall consider user interests and freedom of choice as a primary requirement, principles, and methods to achieve it are yet to be introduced. In the design of persuasive interfaces, fulfilling conditions of informed consent can help establish transparency and resolve such ethical issues. This paper introduces the concept of explainable persuasion as a way to address informed consent within persuasive interfaces. We provide a definition for explainable persuasion, highlight the need for it, discuss the design approach and underline the challenges to be addressed when designing explainable persuasive interfaces.</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>10.1109/REW53955.2021.00066</t>
+  </si>
+  <si>
+    <t>explainability; persuasive systems; ethical design; informed consent</t>
+  </si>
+  <si>
+    <t>Hence, users could be allowed to customise the explainable persuasive interface by selecting which persuasive techniques they wish to receive explanations for, choosing the depth of information they would like to receive, and choosing when they would like to receive explanations.
+Providing information about the use of persuasive techniques can increase user perception of fairness with respect to persuasive systems. Such information can lessen the feeling of being “tricked” by the system and give a sense of control to the users.
+employing explainable persuasion, especially within technology that can be highly immersive, can work as a proactive strategy and help users reflect on their behaviour while interacting with persuasive interfaces. For example, explainable persuasion could inform the user about which persuasive technique contributes to their excessive usage the most.</t>
+  </si>
+  <si>
+    <t>When Persuasive Technology Gets Dark?</t>
+  </si>
+  <si>
+    <t>Tobias Nyström, Agnis Stibe</t>
+  </si>
+  <si>
+    <t>Information Systems</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-030-63396-7_22</t>
+  </si>
+  <si>
+    <t>Inuencing systems and persuasive technology (PT) should give their users a positive experience. While that sounds attractive and many rush implementing novel ideas things such as gami cation, a se rious professional and scienti cally rich discussion is needed to portray a holistic picture on technology in uence. Relatively little research has been aimed at exploring the negative aspects, outcomes, and side e ects of PT. Therefore this research aims at addressing this gap by reviewing the existing knowledge on dark patterns, demonstrating how intended Pt designs can be critically examined, introducing the Visibility-Darkness matrix to categorize and locate dark patterns, and proposing a Frame work for Evaluating the Darkness of Persuasive Technology (FEDPT). The framework is instrumental for designers and developers of inuen tial technology, as it clari es an area where their products and services can have a negative impact on well-being, in other words, can become harmful to the users.</t>
+  </si>
+  <si>
+    <t>Dark Patterns · Design · Evaluation · Framework · Negative · Persuasive Technology · Visibility-Darkness Matrix</t>
+  </si>
+  <si>
+    <t>proposing a Frame work for Evaluating the Darkness of Persuasive Technology (FEDPT). The framework is instrumental for designers and developers of inuen tial technology, as it clari es an area where their products and services can have a negative impact on well-being, in other words, can become harmful to the users.</t>
+  </si>
+  <si>
+    <t>Why Are Persuasive Strategies Effective? Exploring the Strengths and Weaknesses of Socially-Oriented Persuasive Strategies</t>
+  </si>
+  <si>
+    <t>Orji, Rita</t>
+  </si>
+  <si>
+    <t>Persuasive Technology: Development and Implementation of Personalized Technologies to Change Attitudes and Behaviors</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-319-55134-0_20</t>
+  </si>
+  <si>
+    <t>Socially-oriented persuasive strategies (competition, social compar ison, and cooperation) which leverage the power of social influence have been widely employed in Persuasive Technologies (PTs) designs. However, there have been mixed findings regarding their effectiveness. There is still a dearth of knowl edge on the mechanism through which these strategies could motivate or demo tivate behaviors. To advance research in this area, we conduct a large-scale qual itative and quantitative study of 1768 participants to investigate the strengths and weaknesses of these strategies and their comparative effectiveness at motivating healthy behaviors. Our results reveal important strengths and weaknesses of indi vidual strategies that could facilitate or hinder their effectiveness such as their tendency to simplify a behavior and make it fun, challenge people and make them accountable and their tendency to jeopardize individual’s privacy and relation ships, creates unnecessary tension, and reduce self-confidence, respectively. The results, also show that there are significant differences between the strategies with respect to their persuasiveness overall with the social comparison being the most persuasive of the strategies. We contribute to the PT community by revealing the strengths and weaknesses of individual strategies that should be taken into account by designers when employing each of the strategies. Furthermore, we offer design guidelines for operationalizing the strategies to amplify their strengths and overcome their weaknesses.</t>
+  </si>
+  <si>
+    <t>Persuasive technology · Socially influencing systems · Persuasive strategy · Persuasion · Gamified design · Competition · Cooperation · Comparison · Captology</t>
+  </si>
+  <si>
+    <t>Weaknesses of the competition strategy: 
+It reduces self-esteem and makes people lose confidence in themselves and their ability
+It causes unnecessary stress and makes people anxious
+It could backfire and demotivate behavior
+It could jeopardize an individual’s privacy and relationships
+It encourages body shaming and health disorder (e.g., eating disorder)
+Weaknesses of the comparison strategy: 
+It could be invasive and interfere with individual’s privacy
+It could reduce self confidence, cause depression, and make one alienated
+Weaknesses of the cooperation strategy:
+It could create unnecessarily tension and pressure
+It could be tedious and stressful
+It  may jeopardize relationships and privacy</t>
+  </si>
+  <si>
+    <t>Therefore, we suggest that to overcome the privacy issues associated with socially-oriented strategies, designers should include mechanisms that allow users to hide their identity or use nicknames. Designers should also make it possible for individuals to work with strangers that cannot possibly identify them.
+designers should abstract user’s behavior performance data as a way of preserving privacy
+Therefore, care should be taken when employing socially-oriented strategies to reduce the possibility of downward comparison and negative social influence. Designers can pre-screen and redistribute users across groups to ensure effective social circle for comparison.
+Therefore, for competition and comparison-oriented appli cations to be really effective, designers should implement mechanisms that deter PT users from cheating and hence win participants’ trust in the system</t>
+  </si>
+  <si>
+    <t>Opportunities and Challenges for Smartphone Applications in Supporting Health Behavior change: Qualitative Study</t>
+  </si>
+  <si>
+    <t>Dennison, Laura; Morrison, Leanne; Conway, Gemma; Yardley, Lucy</t>
+  </si>
+  <si>
+    <t>Journal of Medical Internet Research</t>
+  </si>
+  <si>
+    <t>10.2196/jmir.2583</t>
+  </si>
+  <si>
+    <t>Background: There is increasing interest from academics and clinicians in harnessing smartphone applications (apps) as a means of delivering behavioral interventions for health. Despite the growing availability of a range of health-related apps on the market, academic research on the development and evaluation of such apps is in the relatively early stages. A few existing studies have explored the views of various populations on using mobile phones for health-related issues and some studies are beginning to report user feedback on specific apps. However, there remains little in depth research on users’(and potential users’) experiences and views on a wide range of features and technologies that apps are, or will soon be, capable of. In particular, research on young adults is lacking, which is an unfortunate omission considering that this group comprises of a good number of mobile technology adoptors. Objective: The current study sought to explore young adults’ perspectives on apps related to health behavior change. It sought their experiences and views of features that might support health behavior change and issues that contribute to interest in and willingness to use such apps. Methods: Four focus groups were conducted with 19 students and staff at a University in the United Kingdom. Participants included 13 females and 6 males with a mean age of 23.79 (SD 7.89). The focus group discussions centred on participants’ experiences of using smartphone apps to support a healthy lifestyle, and their interest in and feelings about features and capabilities of such apps. The focus groups were recorded, transcribed, and analyzed using inductive thematic analysis. Results: Study findings suggested that young, currently healthy adults have some interest in apps that attempt to support health-related behavior change. Accuracy and legitimacy, security, effort required, and immediate effects on mood emerged as important influences on app usage. The ability to record and track behavior and goals and the ability to acquire advice and information “on the go” were valued. Context-sensing capabilities and social media features tended to be considered unnecessary and off-putting. Conclusions: This study provided insight into the opportunities and challenges involved in delivering health-related behavioral interventions through smartphone apps. The findings suggested a number of valued features and characteristics that app developers may wish to consider when creating health behavior apps. Findings also highlighted several major challenges that appeared to need further consideration and research to ensure the development of effective and well-accepted behavior change apps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mobile phone; cellular phone; behavior; health; qualitative research; focus groups</t>
+  </si>
+  <si>
+    <t>Participants voiced a number of apprehensions related to personal privacy and security. Many were uneasy about apps being able to keep their health data secure and private.
+A key worry was whether data entered or sensed by the smartphone would get into the hands of third parties, including the app developer and other companies.</t>
+  </si>
+  <si>
+    <t>Participants described becoming annoyed with receiving prompts, alerts, reminders, and messages. They described irritation or disappointment as a  consequence of inaccurate, untimely, or irrelevant notifications or advice.</t>
+  </si>
+  <si>
+    <t>PE-50</t>
+  </si>
+  <si>
+    <t>PE-51</t>
+  </si>
+  <si>
+    <t>PE-52</t>
+  </si>
+  <si>
+    <t>PE-53</t>
+  </si>
+  <si>
+    <t>PE-54</t>
+  </si>
+  <si>
+    <t>PE-55</t>
+  </si>
+  <si>
+    <t>PE-56</t>
+  </si>
+  <si>
+    <t>PE-57</t>
+  </si>
+  <si>
+    <t>PE-58</t>
+  </si>
+  <si>
+    <t>PE-59</t>
+  </si>
+  <si>
+    <t>PE-60</t>
+  </si>
+  <si>
+    <t>PE-61</t>
+  </si>
+  <si>
+    <t>PE-62</t>
+  </si>
+  <si>
+    <t>PE-63</t>
+  </si>
+  <si>
+    <t>PE-64</t>
+  </si>
+  <si>
+    <t>PE-65</t>
+  </si>
+  <si>
+    <t>PE-66</t>
+  </si>
+  <si>
+    <t>PE-67</t>
+  </si>
+  <si>
+    <t>PE-68</t>
+  </si>
+  <si>
+    <t>With this research, we developed a list of 10 heuristics for persuasive health technologies that can serve as both guidelines for designers in the formative evaluation stages and as metrics for success in the summative evaluation stages.</t>
+  </si>
+  <si>
+    <t>Heuristic evaluation of persuasive health technologies</t>
+  </si>
+  <si>
+    <t>Kientz, Julie A.; Choe, Eun Kyoung; Birch, Brennen; Maharaj, Robert; Fonville, Amanda; Glasson, Chelsey; Mundt, Jen</t>
+  </si>
+  <si>
+    <t>10.1145/1882992.1883084</t>
+  </si>
+  <si>
+    <t>Proceedings of the 1st ACM International Health Informatics Symposium</t>
+  </si>
+  <si>
+    <t>captology, health, health informatics, heuristic evaluation, heuristics, persuasive technologies</t>
+  </si>
+  <si>
+    <t>Persuasive technologies for promoting physical fitness, good nutrition, and other healthy behaviors have been growing in popularity. Despite their appeal, the evaluation of these technologies remains a challenge and typically requires a fully functional prototype and long-term deployment. In this paper, we attempt to help bridge this gap by presenting a method for using heuristic evaluation to evaluate persuasive technologies. We developed a set of 10 heuristics intended to find problems in persuasive technologies that would affect persuasive elements, adoption, or long-term effectiveness of the technologies. We compared the performance of Nielsen's heuristics to our heuristics on two persuasive technologies using 10 different evaluators. Using our heuristics, evaluators found more severe problems more frequently. In addition, the issues that found only by our heuristics were more severe and more relevant to persuasive, cultural, and informational issues of the interfaces evaluated. Our method can be helpful in finding problems in persuasive technologies for promoting healthy behaviors earlier in the design process.</t>
+  </si>
+  <si>
+    <t>Investigating Players' Perceptions of Deceptive Design Practices within a 3D Gameplay Context</t>
+  </si>
+  <si>
+    <t>King, John; Fitton, Dan; Cassidy, Brendan</t>
+  </si>
+  <si>
+    <t>10.1145/3611053</t>
+  </si>
+  <si>
+    <t>Deceptive designpractices havebeenidenti edandstudiedingamesbut,todate,therehavebeennosubstantial explorations of deceptive design practices within 3D environments typically found in PC games. These o er a new set of a ordances for interacting with the player, and game developers may be able to utilize these in order to shape gameplay experiences. The goal of this work was to explore users’ perceptions of deceptive design present in a popular free-to-play 3D game. A survey was carried out with 259 adult respondents identifying and explaining instances of deceptive design within video clips of gameplay from a popular Roblox game. Thematic analysis of the responses revealed six new categories of deceptive design pattern within a 3D gameplay context: Predatory Monetization, Default to Purchase, UI Misdirection, Emotional Interpersonal Persuasion, Physical Placement, and Narrative Obligation. Through our work we hope to highlight the use of deceptive design both within current 3D games and future 3D gaming environments. This work is particularly important as 3D and VR gaming grow in popularity alongside game publishers increasingly moving towards “freemium” monetization models for income.</t>
+  </si>
+  <si>
+    <t>free-to-play, freemium, monetization, 3D games, games, deceptive design
+ patterns</t>
+  </si>
+  <si>
+    <t>Predatory Monetization. contains three main code clusters: loot boxes, multiple currencies, and bulk purchase mechanisms.
+Default To Purchase. This theme addresses instances where the player was directed to purchase in-game items or in-game currency as a default action  there are instances where the NPC prompts the  player to make a purchase, either as a request or as an instruction. For clip D, 3% (n=9) noted the NPC“instructing the player” or “literally told the player to spend money.” Secondly, if the player attempts to buy an item with insu cient credit, the user interface displays a prompt for the user to purchase additional in-game currency with real money
+UI Misdirection. This theme relates to examples where the user interface (i.e., not the NPC) contains elements designed to purposefully focus attention on speci c options, or away from opportunities to opt-out. A small number — an average of 4% (n=3, n=5, n=13, n=8) across the range of clips — noted the use of colors and animation to direct the player’s attention to selected UI elements (such as the “buy in-game currency” button). Comments included “even on the transaction screen, the buy button is highlighted and animated”, “[the buy button] was attracting more attention than the rest of the screen.” In clip C, 4% (n=8) commented on the use of a pleasing sound e ect —described as “an angelic choir” and “a heavenly sound” — to accompany the appearance of the in-game currency storefront.
+Emotional Interpersonal Persuasion. This theme reflects the use of theNPC to solicit an emotional reaction from the player to support engagement in monetization. 38% (n=93) classied clip A as generally emotionally manipulative, using phrases such as “emotionally compels the player” and “appealing emotionally to the player.”
+Physical Placement. This theme describes instances where in-game elements are arranged in physical positions that encourage the player to engage in monetization. This includes 3D physical positioning (as outlined in section 2.3): for clip C’s vehicle dealership, 6% (n=14) noticed that the most expensive items were closest to the entrance (with cheaper items further away).
+Narrative Obligation. This theme identi es where the game’s narrative structure makes the purchase of in-game items a regular or repetitive part of gameplay. Although in-game currency may be earned, this is generally at a slow rate, so players may be forced to spend to keep the game flowing.</t>
+  </si>
+  <si>
+    <t>This paper sought to explore the use of deceptive design for monetization within popular“freemium” 3D games</t>
+  </si>
+  <si>
+    <t>Dark Patterns at Scale: Findings from a Crawl of 11K Shopping Websites</t>
+  </si>
+  <si>
+    <t>Mathur, Arunesh; Acar, Gunes; Friedman, Michael J.; Lucherini, Elena; Mayer, Jonathan; Chetty, Marshini; Narayanan, Arvind</t>
+  </si>
+  <si>
+    <t>10.1145/3359183</t>
+  </si>
+  <si>
+    <t>Dark patterns are user interface design choices that benefit an online service by coercing, steering, or deceiving users into making unintended and potentially harmful decisions. We present automated techniques that enable experts to identify dark patterns on a large set of websites. Using these techniques, we study shopping websites, which often use dark patterns to influence users into making more purchases or disclosing more information than they would otherwise. Analyzing ∼53K product pages from ∼11K shopping websites, we discover 1,818 dark pattern instances, together representing 15 types and 7 broader categories. We examine these dark patterns for deceptive practices, and find 183 websites that engage in such practices. We also uncover 22 third-party entities that offer dark patterns as a turnkey solution. Finally, we develop a taxonomy of dark pattern characteristics that describes the underlying influence of the dark patterns and their potential harm on user decision-making. Based on our findings, we make recommendations for stakeholders including researchers and regulators to study, mitigate, and minimize the use of these patterns.</t>
+  </si>
+  <si>
+    <t>Dark Patterns; Consumer Protection; Deceptive Content; Nudging; Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One instance of Sneak into Basket is shown in Figure 3a, where adding a bouquet of flowers to the shopping cart on avasflowers.net also adds a greeting card.
+Figure 3b shows the Hidden Costs dark pattern on proflowers.com, where the ‘Care &amp; Handling’ charge of $2.99 is revealed immediately before confirming the order
+Hidden Subscription. The ‘Hidden Subscription’ dark pattern charges users a recurring fee under the pretense of a one-time fee or a free trial. Often, if at all, users become aware of the recurring fee once they are charged several days or months after their purchase. we discovered that wsjwine.com offers users an Advantage service which appears to be a one-time payment of $89 but renews annually
+In our data set, we discovered a total of 157 instances of deceptive Countdown Timers on 140 shopping websites. One such example is shown in Figure 4b on justfab.com, where the advertised offer remains valid even after the countdown timer of 60 minutes expires.
+Figure 4c shows an instance of the Limited-time Message dark pattern on chicwish.com, where the advertised sale is stated to end ‘soon’ with no mention of the end date.
+Figure 5a shows one instance of the Confirmshaming dark pattern on radioshack.com. In our data set, we found a total of 169 such instances.
+In some instances, websites used the Visual Interference dark pattern to make certain courses of action more prominent over others. For example, the subscription offering on exposedskincare.com is stylistically more prominent and emphasized than the non-subscription offering.
+Figure 5c shows one instance of Trick Questions on newbalance.co.uk. In our data set, we found a total of 9 such instances, occurring most often during the checkout process when collecting user information to complete purchases.
+The ‘Pressured Selling’ dark pattern refers to defaults or often high-pressure tactics that steer users into purchasing a more expensive version of a product (upselling) or into purchasing related products (cross-selling). Figure 5d shows one such instance on 1800flowers.com, where the largest flower bouquet is selected by default. In another instance, on fashionworld.co.uk, the website opened popup dialogs that the user had to explicitly decline immediately after adding a product to cart. These dialogs urged users to buy more ‘Hot sellers’, ‘Deals’, and ‘Bundled’ products.
+The ‘Activity Notification’ dark pattern is a transient, often recurring and attention grabbing message that appears on product pages indicating the activity of other users. These can be grouped into different categories: dynamic and periodic messages that indicated other users just bought a product (e.g., ‘Abigail from Michigan just bought a new stereo system’); static or dynamic text to indicate how many users have a specific item in their cart (e.g., ‘35 people added this item to cart’); and similar text to indicate how many users have viewed a product (e.g., ‘90 people have viewed this product’). Figures 6a, 6b, and 6c highlight three instances of Activity Notification on tkmaxx.com, thredup.com, and jcpenney.com
+Testimonials of Uncertain Origin. The ‘Testimonials of Uncertain Origin’ dark pattern refers to the use of customer testimonials whose origin or how they were sourced and created is not clearly specified. Figure 6d shows one instance on coolhockey.com, where we found the same set of testimonials on ealerjerseys.com with different customer names attached to them
+In our data set, we found a total of 632 instances of the Low-stock Message dark pattern. However, not all of these instances displayed stock quantities. 49 of these instances only indicated that stock was limited or low, without displaying the exact quantity, resulting in uncertainty, increased desirability of products, and impulse buying behavior in users. Figure 7b shows one such instance on orthofeet.com.
+High-demand Messages. The ‘High-demand Message’ dark pattern signals to users that a product is in high demand, implying that it is likely to sell out soon. Figure 7c shows one such instance on fashionnova.com on the cart page, indicating that the products in the cart are selling out quickly
+For example, as shown in Figure 8a, sportsmansguide.com pro motes a ‘buyer’s club’ discount membership price and makes it easy for users to sign up for the annual recurring membership, as they are under the impression they can ‘cancel anytime.’ However, sportsmansguide.com’s terms of service reveal that the membership can only be cancelled by call ing their customer service
+the Forced Enrollment dark pattern manifested as a checkbox in the user interface, requiring users to simultaneously consent to the terms of service and to receiving marketing emails as part of the consent process. Figure 9a shows one such instance on musiciansfriend.com
+</t>
+  </si>
+  <si>
+    <t>The ‘Sneak into Basket’ dark pattern adds additional products to users’ shopping carts without their consent, often promoting the added products as ‘bonuses’ and ‘neces sary’.
+Hidden Costs. The‘Hidden Costs’dark pattern reveals new, additional, and often unusually high charges to users just before they are about to complete a purchase. Examples of such charges include ‘service fees’ or ‘handling costs’. Often these charges are only revealed at the end of a checkout process, after the user has already filled out shipping/billing information, and consented to terms of use
+Hidden Subscription. The ‘Hidden Subscription’ dark pattern charges users a recurring fee under the pretense of a one-time fee or a free trial. Often, if at all, users become aware of the recurring fee once they are charged several days or months after their purchase. we discovered that wsjwine.com offers users an Advantage service which appears to be a one-time payment of $89 but renews annually
+The ‘Countdown Timer’ dark pattern is a dynamic indicator of a deadline, counting down until the deadline expires. We considered a countdown timer deceptive if (1) the timer reset after timeout with the same offer still valid, or (2) the timer expired but the offer it claimed was expiring was still valid even following expiration
+Unlike Countdown Timers, the ‘Limited-time Message’ dark pattern is a static urgency message without an accompanying deadline. By not stating the deadline, websites withhold information from users, and thus misrepresent the nature of the offer
+Confirmshaming appeared most often in popup dialogs that solicited users’ email addresses in exchange for a discount, where the option to decline the offer—which the website did not want users to select—was framed as a shameful choice. Examples of such framing included ‘No thanks, I like paying full price’, ‘No thanks, I hate saving money’, and ‘No thanks, I hate fun &amp; games’.
+The ‘Visual Interference’ dark pattern uses style and visual presentation to influence users into making certain choices over others
+Like Confirmshaming, Trick Questions attempt to overcome users’ propensity to opt out of marketing and promotional messages by subtly inverting the entire opt-out process. Most often, websites achieved this effect by introducing confusing double negatives (e.g., ‘Uncheck the box if you prefer not to receive email updates’), or by using negatives to alter expected courses of action, such as checking a box to opt out (e.g., ‘We would like to send you emails. If you do not wish to be contacted via email, please ensure that the box is not checked’).
+The ‘Pressured Selling’ dark pattern refers to defaults or often high-pressure tactics that steer users into purchasing a more expensive version of a product (upselling) or into purchasing related products (cross-selling). Figure 5d shows one such instance on 1800flowers.com, where the largest flower bouquet is selected by default. In another instance, on fashionworld.co.uk, the website opened popup dialogs that the user had to explicitly decline immediately after adding a product to cart. These dialogs urged users to buy more ‘Hot sellers’, ‘Deals’, and ‘Bundled’ products.
+The ‘Activity Notification’ dark pattern is a transient, often recurring and attention grabbing message that appears on product pages indicating the activity of other users. These can be grouped into different categories: dynamic and periodic messages that indicated other users just bought a product (e.g., ‘Abigail from Michigan just bought a new stereo system’); static or dynamic text to indicate how many users have a specific item in their cart (e.g., ‘35 people added this item to cart’); and similar text to indicate how many users have viewed a product (e.g., ‘90 people have viewed this product’). Figures 6a, 6b, and 6c highlight three instances of Activity Notification on tkmaxx.com, thredup.com, and jcpenney.com
+Testimonials of Uncertain Origin. The ‘Testimonials of Uncertain Origin’ dark pattern refers to the use of customer testimonials whose origin or how they were sourced and created is not clearly specified. Figure 6d shows one instance on coolhockey.com, where we found the same set of testimonials on ealerjerseys.com with different customer names attached to them
+In our data set, we found a total of 632 instances of the Low-stock Message dark pattern. However, not all of these instances displayed stock quantities. 49 of these instances only indicated that stock was limited or low, without displaying the exact quantity, resulting in uncertainty, increased desirability of products, and impulse buying behavior in users. Figure 7b shows one such instance on orthofeet.com.
+High-demand Messages. The ‘High-demand Message’ dark pattern signals to users that a product is in high demand, implying that it is likely to sell out soon. Figure 7c shows one such instance on fashionnova.com on the cart page, indicating that the products in the cart are selling out quickly
+We observed one type of the Obstruction dark pattern: ‘Hard to Cancel’—a pattern similar to Brignull’s Roach Motel dark pattern [32]—on 31 websites. Obstruction makes it easy for users to sign up for recurring subscriptions and memberships, but it makes it hard for them to subsequently cancel the subscriptions.
+We observed one type of the Forced Action dark pattern, ‘Forced Enrollment’, on 6 websites. This type of dark pattern explicitly coerces users into signing up for marketing communication, or creates accounts to surrender users’ information. By using the Forced Enrollment dark pattern, online services and websites collected more information about their users than they might otherwise consent to—resulting from an all-or-nothing proposition.</t>
+  </si>
+  <si>
+    <t>Urgency dark patterns exploit the scarcity bias in users—making discounts and offers more desirable than they would otherwise be, and signaling that inaction would result in losing out on potential savings. These dark patterns create a potent ‘fear of missing out’ effect particularly when combined with the Social Proof (Section 5.1.4) and Scarcity (Section 5.1.5) dark patterns.</t>
+  </si>
+  <si>
+    <t>The negative aspects of engagement rewards included players who reported feeling frustrated, annoyed, disappointed, or sad, or had fear of missing out. These findings highlight that engagement rewards can be detrimental in some cases.
+In addition to negative experiences of missing out, engagement rewards were also associated with more harmful negative experiences. Some participants described the rewards as “a chore” or “like a job”, highlighting negative connotations with tasks that they would rather not do</t>
+  </si>
+  <si>
+    <t>If games implement such rewards, experiences of missing out can be avoided by providing additional ways to acquire rewards at a later point. Potential ways to enable this include separate ways to acquire the rewards, such as with mastery tracks, or by revisiting events. For instance, Guild Wars 2 uses an event that makes older but now restricted content available again for free [44].
+Other options to decrease the downsides of missing out include compensatory rewards for days when players did not acquire engagement rewards, using streak systems that do not reset on missing a day (Guild Wars 2 already uses such a system), and letting rewards accumulate (e.g., having multiple slots for rewards that players can claim when they login). In addition to providing these ways to acquire rewards, it is also important to communicate this to the players. Players need to know that they will be able to acquire such rewards another time to not have experiences of missing out. Then, the negative experience of missing out could be avoided.
+Use Engagement Rewards As Optional Bonuses To Facilitate Positive Player Experience.
+By decoupling rewards from these systems, players do not have to acquire the rewards for playing the game and therefore may consider them as beneficial and not obligatory. This way, the players’ relationship and interaction with these rewards would be more natural and healthy.</t>
+  </si>
+  <si>
+    <t>In this paper, we presented research about engagement rewards, i.e., time-based rewards that aim to entice players to play games, such as daily login bonuses, holiday events, and limited-time quests.</t>
+  </si>
+  <si>
+    <t>Daily Quests or Daily Pests? The Benefits and Pitfalls of Engagement Rewards in Games</t>
+  </si>
+  <si>
+    <t>Frommel, Julian; Mandryk, Regan L.</t>
+  </si>
+  <si>
+    <t>10.1145/3549489</t>
+  </si>
+  <si>
+    <t>Many games use engagement rewards as incentives for players to engage, e.g., daily login rewards, repeatable challenges, or seasonal rewards like holiday skins. These rewards may serve players by facilitating enjoyment or motivation; however, they may also be considered differently by skeptical players, e.g., as dark patterns that do not benefit players, and may detract from-or even harm-player experiences. As they are widely prevalent in a variety of games, it is important to understand how such rewards are experienced by players to inform potential pitfalls, such as when they are negative for gaming experience or lead to unhealthy gaming behaviours. 178 participants completed a mixed-methods survey and described such rewards in games they play, the tasks required to acquire them, and their experience qualitatively and with validated scales of motivation regulation and passion orientation. We found that players perceived these rewards as beneficial (e.g., as motivation), as negative (e.g., by promoting fear of missing out), or even as an obligation or chore. Quantitative results further support the dualistic experience of such rewards. We contribute findings and design recommendations that are useful for understanding and designing widely used but potentially detrimental reward mechanics.</t>
+  </si>
+  <si>
+    <t>games, reward, daily, quests, engagement, motivation, passion, lootbox</t>
+  </si>
+  <si>
+    <t>From Motivating to Manipulative: The Use of Deceptive Design in a Game's Free-to-Play Transition</t>
+  </si>
+  <si>
+    <t>Hadan, Hilda; Sgandurra, Sabrina Alicia; Zhang-Kennedy, Leah; Nacke, Lennart E.</t>
+  </si>
+  <si>
+    <t>10.1145/3677074</t>
+  </si>
+  <si>
+    <t>Deceptive Design, Free-to-Play, Overwatch, Game Player Perception,
+ Game Model Transition</t>
+  </si>
+  <si>
+    <t>Over the last decade, the free-to-play (F2P) game business model has gained popularity in the games industry. Weexamine the role of deceptive design during a game’s transition to F2P and its impacts on players. Our analysis focuses on game mechanics and a Reddit analysis of the Overwatch (OW) series after it transitioned to an F2P model. Our study identifies nine game mechanics that use deceptive design patterns. We also identify factors contributing to a negative gameplay experience. Business model transitions in games present possibilities for problematic practices. Our findings identify the need for game developers and publishers to balance player investments and fairness of rewards. A game’s successful transition depends on maintaining fundamental components of player motivation and ensuring transparent communication. Compared to existing taxonomies in other media, games need a comprehensive classification of deceptive design. We emphasize the importance of understanding player perceptions and the impact of deceptive practices in future research.</t>
+  </si>
+  <si>
+    <t>Throughout our analysis, we found multiple game mechanics implemented temporal deceptive patterns to maintain player engage ment, encouraging them to spend more time than they would have otherwise [75]. For example, Daily/Weekly/Seasonal Challenges and Battle Pass demonstrated the characteristics of Grind ing and Infinite Treadmill. Overall, players felt trapped in these time sinks and dreaded the never-ending and tedious tasks, which made the game feel like a chore rather than a hobby to them. 
+Our analysis identified multiple monetary deceptive design patterns within OW2 game mechanics that aim to get players spending more than they intend [75]. For example, Battle Pass incorporates characteristics of Anchoring Tricks, Recurring Fee, and Pay-to-Skip.
+Furthermore, the In-Game Shop (see Figure 3) uses Anchoring Tricks, Artificial Scarcity, and Waste Aversion. The shop inventory refreshes periodically to create fake scarcity, encouraging impulse purchases
+Our game mechanics analysis found that Daily/Weekly/Seasonal Challenges, the Battle Pass and the New Character further demon strated the characteristics of Fear of Missing Out (FOMO).
+While the Complete the Collection deceptive design [75] was also used in OW1, our analysis of Reddit posts revealed that the current OW2 reward system exacerbates its psychological impact, leading players to grind up to 326 years to earn enough coins or to spend up to $10,200 USD to complete collections.</t>
+  </si>
+  <si>
+    <t>Throughout our analysis, we found multiple game mechanics implemented temporal deceptive patterns to maintain player engage ment, encouraging them to spend more time than they would have otherwise [75]. For example, Daily/Weekly/Seasonal Challenges and Battle Pass demonstrated the characteristics of Grind ing and Infinite Treadmill. Overall, players felt trapped in these time sinks and dreaded the never-ending and tedious tasks, which made the game feel like a chore rather than a hobby to them. 
+Our analysis identified multiple monetary deceptive design patterns within OW2 game mechanics that aim to get players spending more than they intend [75]. For example, Battle Pass incorporates characteristics of Anchoring Tricks, Recurring Fee, and Pay-to-Skip.
+Furthermore, the In-Game Shop (see Figure 3) uses Anchoring Tricks, Artificial Scarcity, and Waste Aversion. The shop inventory refreshes periodically to create fake scarcity, encouraging impulse purchases
+In OW2, we consider OW Coins as a deceptive pattern because coins can now be purchased with real money. This Premium Currency establishes an exchange rate with real money, hiding the true prices of items.
+Our game mechanics analysis found that Daily/Weekly/Seasonal Challenges, the Battle Pass and the New Character further demon strated the characteristics of Fear of Missing Out (FOMO).
+For example, we identified the characteristics of Aesthetic Manipulations from Battle Pass. Upon reaching tier 80 (see Figure 1), premium players are rewarded with a mythic skin with customizable attire and unique audio effects. This exclusive mythic skin stands out from other skins in OW2 and cannot be obtained elsewhere, making the premium more tempting for players.
+While the Complete the Collection deceptive design [75] was also used in OW1, our analysis of Reddit posts revealed that the current OW2 reward system exacerbates its psychological impact, leading players to grind up to 326 years to earn enough coins or to spend up to $10,200 USD to complete collections.</t>
+  </si>
+  <si>
+    <t>For this research, we study a popular multiplayer first-person shooter (FPS) game series, Over watch (OW), because it recently transitioned from a B2P to F2P model.</t>
+  </si>
+  <si>
+    <t>Don't Let Netflix Drive the Bus: User's Sense of Agency Over Time and Content Choice on Netflix</t>
+  </si>
+  <si>
+    <t>Schaffner, Brennan; Stefanescu, Antonia; Campili, Olivia; Chetty, Marshini</t>
+  </si>
+  <si>
+    <t>10.1145/3579604</t>
+  </si>
+  <si>
+    <t>Users often turn to subscription video on demand (SVOD) platforms for entertainment. However, these platforms sometimes employ manipulative tactics that undermine a user's sense of agency over time and content choice to increase their share of a user's attention. Prior research has investigated how interface designs affect a user's sense of agency on social media and YouTube. For example, YouTube's autoplay left users feeling like they had less control over their time. We extend this work by investigating the design elements of Netflix, the most used SVOD, for the impact they have on users' senses of agency. We conducted interviews with 20 participants that used Netflix regularly, asking about their experiences and perceptions of features in the Netflix platform design that may affect their sense of agency. We found that a user's sense of agency was at odds with the platform's design. Users, who were often seeking entertainment for mood management, were met with features that encouraged watching more than they originally planned to and watching content they may not otherwise watch. We discuss design recommendations that Netflix could employ to reaffirm their users' agency.</t>
+  </si>
+  <si>
+    <t>streaming media, online manipulation, autoplay, time management</t>
+  </si>
+  <si>
+    <t>Given that half of the participants expressed interest in turning off autoplay and that it influenced users to watch more than they intended, we suggest putting a moreaccessible toggle for the feature, potentially modeling it off YouTube’s autoplay toggle. Additional control could include being able to increase the autoplay countdown for a longer period of reflection or set the number of episodes that will autoplay before stopping.</t>
+  </si>
+  <si>
+    <t>15/20 participants did mention adverse effects Netflix use had on their time, fueled by a lack of stopping cues and autoplay. Many (6/20) watched more than they planned to, and in some cases were hooked into watching for long periods of time.
+Others felt that while they did not necessarily dislike what the algorithmic support comes up with, they did not particularly trust its intentions: “It does feel a little coercive, a little bit manipulative, what the recommendation engine is doing, especially those things in the, I don’t know, user interface or the recommendations that cause me to watch more and more TV because sometimes that happens. Sometimes I feel like I’m watching too much Netflix. I know that is mostly my fault, but it feels like sometimes I’m watching more Netflix because I’m interacting with the recommendations a certain way.” (P1)</t>
+  </si>
+  <si>
+    <t>Digital Wellbeing Lens: Design Interfaces That Respect User Attention</t>
+  </si>
+  <si>
+    <t>Monge Roffarello, Alberto; De Russis, Luigi; Pellegrino, Massimiliano</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2024 International Conference on Advanced Visual Interfaces</t>
+  </si>
+  <si>
+    <t>10.1145/3656650.3656674</t>
+  </si>
+  <si>
+    <t>User interfaces heavily rely on attention-capture design patterns, e.g., infinite scroll and other variable-rewarding mechanisms, that erode users’ sense of autonomy and undermine their digital wellbe ing. Instead of having users rely on external self-regulation tools, this paper advocates that tech companies and designers should prioritize users’ digital wellbeing by design. To take a first step in this direction, we present Digital Wellbeing Lens, a Figma plugin that guides designers in creating user interfaces that respect and preserve user time and attention. The plugin allows the continu ous evaluation of prototypes against attention-capture patterns, calculating a digital wellbeing score and suggesting suitable design alternatives. Besides introducing the plugin, we demonstrate its practical application through a use case involving the design of a mobile social media app, and we report on the results of a first exploratory study with four designers, discussing the opportunities and challenges of embracing this paradigm shift.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> digital wellbeing, attention-capture designs, Figma</t>
+  </si>
+  <si>
+    <t>e present Digital Wellbeing Lens, a Figma plugin that guides designers in creating user interfaces that respect and preserve user time and attention. The plugin allows the continu ous evaluation of prototypes against attention-capture patterns, calculating a digital wellbeing score and suggesting suitable design alternatives.</t>
+  </si>
+  <si>
+    <t>From Dark Patterns to Fair Patterns? Usable Taxonomy to Contribute Solving the Issue with Countermeasures</t>
+  </si>
+  <si>
+    <t>Potel-Saville, Marie; Da Rocha, Mathilde</t>
+  </si>
+  <si>
+    <t>Privacy Technologies and Policy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-031-61089-9_7</t>
+  </si>
+  <si>
+    <t>Dark patterns are deceptive or manipulative interfaces that can lead users to act against their preferences or best interests. They are widely spread in the digital environment and there is multi-disciplinary evidence of the individual and structural harms that they cause. In this article, we synthesize evidence of the prevalence of dark patterns, evidence of their harms, and the legal framework addressing them. Then, we propose a complementary area of research: a new taxonomy to contribute to solving the issue. We detail existing taxonomies, their main respective purposes, and we provide a gap analysis bridging human-centered principles and practitioners needs. Based on that analysis, we propose a new taxonomy to provide a usable, accessible, and sustainable tool to empower all stakeholders to take action and fight against dark patterns. In this taxonomy, we introduce the notion of fair pattern as a way to shift from a problem-oriented to a problem-solving perspective. Finally, the advantages and limitations of this taxonomy, such as the perspectives it opens as a countermeasure to solve the issue, are discussed.</t>
+  </si>
+  <si>
+    <t>dark patterns, deceptive patterns, taxonomy, resolution method, fairness by design, autonomy enhancing measures, fair patterns.</t>
+  </si>
+  <si>
+    <t>we proposed a taxonomy of dark patterns with corresponding fair patterns as countermeasures. This taxonomy groups the categories from the existing taxonomies making them easily usable and resistant to change. Complementary to the taxonomy, we propose fair patterns as an alternative that creates interfaces which do not manipulate users and respect the legal and regulatory framework.</t>
+  </si>
+  <si>
+    <t>Dark Patterns in Shopping, Education &amp; Health Apps</t>
+  </si>
+  <si>
+    <t>P. Rahman; I. Adaji</t>
+  </si>
+  <si>
+    <t>2024 IEEE Digital Platforms and Societal Harms (DPSH)</t>
+  </si>
+  <si>
+    <t>Dark patterns are deceptive or manipulative design techniques in technology. They pose challenges for policymakers because they impact user autonomy and financial well-being. However, the lack of quantifiability of dark patterns complicates regulation efforts, and much of the existing research remains theoretical, lacking practical application. This study aims to address these gaps by identifying and quantifying various types of dark patterns in day-to-day software applications across different domains, namely shopping, health and fitness, and education. Drawing from the conceptual framework outlined in previous research, the top three apps in Canada within each application domain were selected for analysis. By identifying dark patterns and assessing the attributes of the identified dark patterns, each app was assigned a darkness score. The findings revealed that Temu, Yuka-Food &amp; Cosmetic Scanner, and Duolingo reported the highest darkness scores within their respective categories, with scores of $7.5,5$, and 6.5, respectively. Furthermore, the shopping category exhibited the highest mean darkness scores, indicating a greater prevalence of dark patterns in this domain. Across all categories, the modification of decision space emerged as the most commonly influenced choice architecture. This study contributes to a deeper understanding of where regulatory efforts should be focused in addressing dark patterns in applications. It also sheds light on the nature of different types of dark patterns, their utilization across various domains, and the similarities and differences in their implementation. Moreover, by quantifying darkness in applications, this research underscores the importance of quantifiability in the evaluation of dark patterns, providing valuable insights for policymakers, researchers, and practitioners.</t>
+  </si>
+  <si>
+    <t>10.1109/DPSH60098.2024.10775239</t>
+  </si>
+  <si>
+    <t>Education; Decision making; Pressing; Computer architecture; User interfaces; Software; Regulation</t>
+  </si>
+  <si>
+    <t>By imposing cognitive burdens on users to steer them towards predetermined choices, these apps infringe upon users’ ability to make autonomous decisions.
+the gamification present in some educational apps can lead to additional cognitive burden and financial loss while impacting the quality of learning for the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the apps, Temu, Shein, and Amazon reported the hidden costs dark pattern.  This dark pattern influences the manipulate information flow choice architecture and has a required attribute of deception and an optional attribute of information hiding.
+All three apps also utilized a dark pattern category known as scarcity, where the perception of high demand or limited availability is suggested to enhance the product’s perceived worth and desirability [27]. This was primarily achieved through deceptive low-stock messages and high demand messages. For instance, Amazon displayed ”limited time offer” banners without specifying further details, while Temu utilized messaging such as ”Almost sold out,” which lacks numeric specificity and could be misleading [4].
+Additionally, all three apps employed countdown timers and limited-time messages to increase urgency, exploiting the scarcity bias [28]
+Confirm-shaming [16] was prevalent in all three applications, particularly during checkout exits and when users opted not to subscribe to a premium model
+In Temu nagging dark pattern is heavily employed by the use of multiple pop-ups to redirect the user. This pattern has a required asymmetric attribute influencing the modify decision space choice architecture.
+Temu employs deceptive language such as ”You have won a reward upgrade” to manipulate user actions, utilizing confusing language and misleading interface elements.
+Temu also uses the coercion dark pattern [17] where threatening messages and notifications are sent to the user to perform a certain action.
+Figure 2 shows a trick in Temu where the user is promised $200 but ends up being deceived with multiple criteria needed to avail the money
+For all three health and fitness apps, canceling subscriptions proved challenging due to the obstruction dark pattern. Subscriptions couldn’t be canceled within the apps, making the process deliberately cumbersome.
+The ShutEye: Sleep Tracker, Sound app, and the Me+ Daily Routine Planner had the presence of the scarcity dark pattern where a limited-time deal was shown to the user with a countdown timer.
+In the ShutEye: Sleep Tracker, the longest and the most expensive subscription plan was selected by default with a visually appealing color.
+The phrase ”pay what you want” is used with a slider to indicate the user can choose how much they want to pay, however, the payment amount is fixed and cannot be changed.
+Moreover, in the Yuka-Food and Cosmetic Scanner app, the social proof dark pattern was used with unclear origins of testimonials [4]. This exploits the bandwagon effect where the user chooses by conforming to the opinion of other people [30].
+PhotoMath and the Plantin: Plant Identifier were identified to have obstruction to cancel dark patterns as it was not possible to cancel the subscription from within the app.
+Duolingo cleverly motivates users to sustain their learning streaks by providing the option to restore streaks through payment, thereby encouraging users to maintain their positions on leaderboards. This strategy taps into users’ competitive instincts, prompting them to invest money for in-game recognition, like securing a prominent rank on leaderboards [5].
+Furthermore, Duolingo employs the coercion dark pattern, using threatening and emotionally provoking language within the app
+Moreover, the scarcity dark pattern is evident in Duolingo’s promotion of its discounted monthly subscription, artificially creating scarcity by limiting the offer to 48 hours. This scarcity effect may push users towards longer subscription plans due to the presence of the optional covert attribute.
+Additionally, Duolingo utilizes misdirection or manipulating navigation dark pattern by introducing in-app currency called ”Gems” for purchase, obscuring the true value of items through the intermediate currency dark pattern which has been illustrated in Figure 6c. This pattern has the required asymmetric attribute and the optional covert attribute. This may lead users to buy more gems than intended.
+Another dark pattern found in the app is the forced action/ forced work pattern. The app presents users with the option to watch an advertisement in exchange for a ”Free Chest” containing gems. This effectively forces users into viewing ads to access app features, particularly when they lack gems for in-app purchases.
+the gamification present in some educational apps can lead to additional cognitive burden and financial loss while impacting the quality of learning for the user.
+</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +2301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,6 +2332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1196,7 +2365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1231,6 +2400,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8ED8D9-ABAB-4C39-A766-D0ECC579BC6D}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A60" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,967 +2785,2059 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>265</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5">
         <v>2021</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5">
         <v>2021</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5">
         <v>2022</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5">
         <v>2022</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5">
         <v>2023</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5">
         <v>2023</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5">
         <v>2023</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5">
         <v>2023</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E10" s="5">
         <v>2024</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
         <v>2024</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5">
         <v>2024</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E13" s="5">
         <v>2024</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E14" s="5">
         <v>2024</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E15" s="5">
         <v>2024</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E16" s="5">
         <v>2021</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E17" s="5">
         <v>2022</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E18" s="5">
         <v>2024</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="J18" s="6" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E19" s="5">
         <v>2024</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E20" s="5">
         <v>2022</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="216" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E21" s="5">
         <v>2023</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E22" s="5">
         <v>2023</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="H22" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E23" s="5">
         <v>2024</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E24" s="5">
         <v>2021</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E25" s="5">
         <v>2022</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>185</v>
+      <c r="A26" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E26" s="5">
         <v>2024</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>192</v>
+      <c r="A27" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E27" s="5">
         <v>2024</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="E28" s="5">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>207</v>
+        <v>327</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="E29" s="5">
         <v>2024</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>215</v>
+        <v>311</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="E30" s="5">
         <v>2024</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>118</v>
+        <v>6</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>216</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2013</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2009</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1998</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2020</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2013</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2010</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2023</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2019</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2023</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2023</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F67" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F69" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F70" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F71" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F72" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30" xr:uid="{2FC27BF5-41F1-4816-A3A0-58CE0E65DC44}">
-      <formula1>"2020,2021,2022,2023,2024"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H41" xr:uid="{B12B1CE5-15C9-499A-92C0-57BB761A2EF4}">
+      <formula1>"Congreso,Revista"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F30" xr:uid="{7B261BEF-9E22-4CCD-A833-63F026B51F11}">
-      <formula1>"ACM DL,SpringerLink,ScienceDirect,Scopus"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:H29 H42:H72" xr:uid="{78A4734C-67D2-4311-855E-2F31C78BB639}">
+      <formula1>"Conference,Journal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H31" xr:uid="{B12B1CE5-15C9-499A-92C0-57BB761A2EF4}">
-      <formula1>"Congreso,Revista"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F72" xr:uid="{7B261BEF-9E22-4CCD-A833-63F026B51F11}">
+      <formula1>"ACM DL,SpringerLink,ScienceDirect,IEEE"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2579,10 +4852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDEF61A-CAB0-4CE3-ADFE-283B824D852F}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView zoomScale="46" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2598,448 +4871,885 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>13</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="6"/>
       <c r="D9" s="10" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>291</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="168" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>136</v>
+        <v>299</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>167</v>
+        <v>303</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="360" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>268</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="E30" s="4"/>
     </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>